--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6A882A-5983-4D72-A179-5EC3B6B02629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62AED99-BF37-4774-A523-9325E99EE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="-15165" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="9165" yWindow="-15165" windowWidth="19080" windowHeight="11670" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1622,7 +1622,7 @@
         <v>72</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62AED99-BF37-4774-A523-9325E99EE091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C99A2-3C20-4F6A-8A4E-39B6D1740872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="-15165" windowWidth="19080" windowHeight="11670" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="89">
   <si>
     <t>RW</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>criterionDetails</t>
+  </si>
+  <si>
+    <t>Participated in or Associated with 1987–1989 JVP insurrection</t>
+  </si>
+  <si>
+    <t>Associated with Communist Ideologies</t>
   </si>
 </sst>
 </file>
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,6 +817,22 @@
         <v>85</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
     <sortCondition ref="B2:B14"/>
@@ -821,9 +843,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -835,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,9 +1158,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1150,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3614,89 +3636,409 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>68</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>87</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>72</v>
+      </c>
+      <c r="E148">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>15</v>
+      </c>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>88</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>32</v>
+      </c>
+      <c r="E158">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>15</v>
+      </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>15</v>
+      </c>
+      <c r="B162" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>15</v>
+      </c>
+      <c r="B163" t="s">
+        <v>88</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>15</v>
+      </c>
+      <c r="B164" t="s">
+        <v>88</v>
+      </c>
+      <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>36</v>
+      </c>
+      <c r="E164">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E166">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
     <sortCondition ref="A2:A172"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A1:A155 A167:A1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3708,8 +4050,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A156:A166">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3720,18 +4086,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C99A2-3C20-4F6A-8A4E-39B6D1740872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9A2AD-CECD-46C7-9C26-7869800C944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="9165" yWindow="-15165" windowWidth="19080" windowHeight="11670" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
     <sheet name="Candidates" sheetId="2" r:id="rId2"/>
     <sheet name="Criterion x Candidate" sheetId="3" r:id="rId3"/>
+    <sheet name="Name List" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="92">
   <si>
     <t>RW</t>
   </si>
@@ -305,6 +306,15 @@
   </si>
   <si>
     <t>Associated with Communist Ideologies</t>
+  </si>
+  <si>
+    <t>Declared Assets in Public</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>Has Ongoing Criminal Case(s)</t>
   </si>
 </sst>
 </file>
@@ -693,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,15 +715,18 @@
     <col min="2" max="2" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -721,7 +734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -729,7 +742,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -737,7 +750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -745,7 +758,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -753,7 +766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -761,7 +774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -769,7 +782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -777,7 +790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -785,7 +798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -793,7 +806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -801,7 +814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -809,7 +822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -817,7 +830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -825,12 +838,28 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -850,6 +879,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -857,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,16 +1254,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>-100</v>
@@ -1241,33 +1271,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>-100</v>
@@ -1275,33 +1305,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>-100</v>
@@ -1309,16 +1339,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1326,16 +1356,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>-100</v>
@@ -1343,61 +1373,61 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E10">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E11">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E12">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1411,16 +1441,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>-100</v>
@@ -1428,50 +1458,50 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E17">
         <v>-100</v>
@@ -1479,16 +1509,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>-100</v>
@@ -1496,16 +1526,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>-100</v>
@@ -1519,27 +1549,27 @@
         <v>74</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>-100</v>
@@ -1547,16 +1577,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E22">
         <v>-100</v>
@@ -1564,16 +1594,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <v>-100</v>
@@ -1581,27 +1611,27 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1610,21 +1640,21 @@
         <v>71</v>
       </c>
       <c r="E25">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>-100</v>
@@ -1632,50 +1662,50 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E28">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>-100</v>
@@ -1683,16 +1713,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>-100</v>
@@ -1700,33 +1730,33 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E32">
         <v>-100</v>
@@ -1734,16 +1764,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>-100</v>
@@ -1751,16 +1781,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E34">
         <v>-100</v>
@@ -1768,16 +1798,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>-100</v>
@@ -1785,16 +1815,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>-100</v>
@@ -1802,10 +1832,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1819,16 +1849,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>-100</v>
@@ -1842,10 +1872,10 @@
         <v>76</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>-100</v>
@@ -1853,16 +1883,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>-100</v>
@@ -1870,50 +1900,50 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E42">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>-100</v>
@@ -1921,16 +1951,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -1938,50 +1968,50 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>-100</v>
@@ -1989,10 +2019,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2006,33 +2036,33 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2040,16 +2070,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2057,33 +2087,33 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E53">
         <v>-100</v>
@@ -2091,16 +2121,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>-100</v>
@@ -2108,33 +2138,33 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E56">
         <v>-100</v>
@@ -2142,19 +2172,19 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E57">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2165,10 +2195,10 @@
         <v>78</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E58">
         <v>-100</v>
@@ -2176,27 +2206,27 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E59">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -2210,67 +2240,67 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E61">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E62">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E63">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E64">
         <v>-100</v>
@@ -2278,16 +2308,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C65">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E65">
         <v>-100</v>
@@ -2295,16 +2325,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="E66">
         <v>-100</v>
@@ -2312,33 +2342,33 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -2346,61 +2376,61 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E71">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -2409,58 +2439,58 @@
         <v>47</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,10 +2501,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2482,67 +2512,67 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E77">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E78">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E79">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E80">
         <v>-100</v>
@@ -2550,16 +2580,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E81">
         <v>-100</v>
@@ -2567,16 +2597,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E82">
         <v>-100</v>
@@ -2584,10 +2614,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2601,16 +2631,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E84">
         <v>-100</v>
@@ -2618,33 +2648,33 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E85">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E86">
         <v>-100</v>
@@ -2652,16 +2682,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E87">
         <v>-100</v>
@@ -2669,16 +2699,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E88">
         <v>-100</v>
@@ -2686,104 +2716,104 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C89">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E89">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E90">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E92">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E93">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E94">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2805,16 +2835,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>-100</v>
@@ -2822,16 +2852,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E97">
         <v>-100</v>
@@ -2839,16 +2869,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E98">
         <v>-100</v>
@@ -2856,33 +2886,33 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E99">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E100">
         <v>-100</v>
@@ -2890,67 +2920,67 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -2958,33 +2988,33 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E106">
         <v>-100</v>
@@ -2992,10 +3022,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -3004,38 +3034,38 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>-100</v>
@@ -3043,67 +3073,67 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>-100</v>
@@ -3117,10 +3147,10 @@
         <v>83</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>-100</v>
@@ -3128,16 +3158,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -3145,16 +3175,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>-100</v>
@@ -3162,16 +3192,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>-100</v>
@@ -3179,10 +3209,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C118">
         <v>7</v>
@@ -3196,16 +3226,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>-100</v>
@@ -3213,16 +3243,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>-100</v>
@@ -3230,67 +3260,67 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
         <v>12</v>
       </c>
-      <c r="B123" t="s">
-        <v>84</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>68</v>
-      </c>
       <c r="E123">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
         <v>12</v>
-      </c>
-      <c r="B124" t="s">
-        <v>84</v>
-      </c>
-      <c r="C124">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s">
-        <v>71</v>
       </c>
       <c r="E124">
         <v>-100</v>
@@ -3298,16 +3328,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
         <v>12</v>
-      </c>
-      <c r="B125" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125" t="s">
-        <v>32</v>
       </c>
       <c r="E125">
         <v>-100</v>
@@ -3315,16 +3345,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
         <v>12</v>
-      </c>
-      <c r="B126" t="s">
-        <v>84</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>72</v>
       </c>
       <c r="E126">
         <v>-100</v>
@@ -3332,33 +3362,33 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
         <v>12</v>
       </c>
-      <c r="B127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C127">
-        <v>5</v>
-      </c>
-      <c r="D127" t="s">
-        <v>47</v>
-      </c>
       <c r="E127">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
         <v>12</v>
-      </c>
-      <c r="B128" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128">
-        <v>6</v>
-      </c>
-      <c r="D128" t="s">
-        <v>39</v>
       </c>
       <c r="E128">
         <v>-100</v>
@@ -3366,27 +3396,27 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
         <v>12</v>
       </c>
-      <c r="B129" t="s">
-        <v>84</v>
-      </c>
-      <c r="C129">
-        <v>7</v>
-      </c>
-      <c r="D129" t="s">
-        <v>0</v>
-      </c>
       <c r="E129">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -3400,19 +3430,19 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" t="s">
-        <v>84</v>
-      </c>
-      <c r="C131">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>36</v>
-      </c>
       <c r="E131">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3423,10 +3453,10 @@
         <v>84</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E132">
         <v>-100</v>
@@ -3434,33 +3464,33 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
         <v>12</v>
       </c>
-      <c r="B133" t="s">
-        <v>84</v>
-      </c>
-      <c r="C133">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
-        <v>26</v>
-      </c>
       <c r="E133">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E134">
         <v>-100</v>
@@ -3468,16 +3498,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E135">
         <v>-100</v>
@@ -3485,16 +3515,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E136">
         <v>-100</v>
@@ -3502,16 +3532,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E137">
         <v>-100</v>
@@ -3519,16 +3549,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E138">
         <v>-100</v>
@@ -3536,16 +3566,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E139">
         <v>-100</v>
@@ -3553,16 +3583,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E140">
         <v>-100</v>
@@ -3570,16 +3600,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E141">
         <v>-100</v>
@@ -3587,10 +3617,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -3599,21 +3629,21 @@
         <v>36</v>
       </c>
       <c r="E142">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E143">
         <v>-100</v>
@@ -3621,50 +3651,50 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E144">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E145">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E146">
         <v>-100</v>
@@ -3672,33 +3702,33 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E147">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E148">
         <v>-100</v>
@@ -3706,16 +3736,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E149">
         <v>-100</v>
@@ -3723,16 +3753,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E150">
         <v>-100</v>
@@ -3746,10 +3776,10 @@
         <v>87</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E151">
         <v>-100</v>
@@ -3757,16 +3787,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E152">
         <v>-100</v>
@@ -3774,10 +3804,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C153">
         <v>9</v>
@@ -3791,16 +3821,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E154">
         <v>-100</v>
@@ -3808,16 +3838,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E155">
         <v>-100</v>
@@ -3825,33 +3855,33 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E156">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E157">
         <v>-100</v>
@@ -3859,50 +3889,50 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E158">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E160">
         <v>-100</v>
@@ -3910,33 +3940,33 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E161">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E162">
         <v>-100</v>
@@ -3944,33 +3974,33 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C163">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E163">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E164">
         <v>-100</v>
@@ -3978,10 +4008,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -3990,43 +4020,466 @@
         <v>6</v>
       </c>
       <c r="E165">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>13</v>
+      </c>
+      <c r="B167" t="s">
+        <v>85</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
         <v>15</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" t="s">
         <v>88</v>
       </c>
-      <c r="C166">
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>91</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172">
         <v>11</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D172" t="s">
         <v>26</v>
       </c>
-      <c r="E166">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
+      <c r="E172">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>78</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>81</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>82</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+      <c r="E181">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>12</v>
+      </c>
+      <c r="B183" t="s">
+        <v>84</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>85</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>15</v>
+      </c>
+      <c r="B186" t="s">
+        <v>88</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>91</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188">
+        <v>-100</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F172">
-    <sortCondition ref="A2:A172"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E188">
+    <sortCondition ref="C2:C188"/>
+    <sortCondition ref="A2:A188"/>
   </sortState>
-  <conditionalFormatting sqref="A1:A155 A167:A1048576">
+  <conditionalFormatting sqref="A156:A166">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167:A177">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178:A188">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:A1048576 A1:A155">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189:A1048576 A1:A166">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4038,20 +4491,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4062,30 +4503,87 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156:A166">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9165A682-4C80-41FB-9DE1-E3F2A244CFC4}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>Candidates!C2&amp;" "&amp;Candidates!D2</f>
+        <v>Anura Kumara Disanayake</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>Candidates!C3&amp;" "&amp;Candidates!D3</f>
+        <v>ASP Liyanage</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>Candidates!C4&amp;" "&amp;Candidates!D4</f>
+        <v>Janaka Ratnayake</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>Candidates!C5&amp;" "&amp;Candidates!D5</f>
+        <v>Mathiaparanan Abraham Sumanthiran</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>Candidates!C6&amp;" "&amp;Candidates!D6</f>
+        <v>Nuwan Bopage</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>Candidates!C7&amp;" "&amp;Candidates!D7</f>
+        <v>Oshala Herath</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>Candidates!C8&amp;" "&amp;Candidates!D8</f>
+        <v>Ranil Wickramasinghe</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>Candidates!C9&amp;" "&amp;Candidates!D9</f>
+        <v>Sarath Fonseka</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>Candidates!C10&amp;" "&amp;Candidates!D10</f>
+        <v>Sarath Keerthirathna</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>Candidates!C11&amp;" "&amp;Candidates!D11</f>
+        <v>Sajith Premadasa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>Candidates!C12&amp;" "&amp;Candidates!D12</f>
+        <v>Wijeyadasa Rajapakshe</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF9A2AD-CECD-46C7-9C26-7869800C944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC50C0-F39B-4442-971C-1880EF603557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="-15165" windowWidth="19080" windowHeight="11670" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="9600" yWindow="-14730" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>3135.jpg</t>
   </si>
   <si>
-    <t>Ind</t>
-  </si>
-  <si>
     <t>Sumanthiran</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Has Ongoing Criminal Case(s)</t>
+  </si>
+  <si>
+    <t>Independent</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -717,13 +717,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,7 +827,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,25 +904,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -930,22 +930,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -953,22 +953,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -976,22 +976,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -999,22 +999,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1022,22 +1022,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1045,22 +1045,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,22 +1114,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1160,22 +1160,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1217,22 +1217,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>-100</v>
@@ -1257,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>-100</v>
@@ -1274,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1291,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>-100</v>
@@ -1308,13 +1308,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1325,13 +1325,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>-100</v>
@@ -1342,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1359,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>-100</v>
@@ -1376,13 +1376,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1393,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1410,13 +1410,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1427,13 +1427,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>-100</v>
@@ -1444,13 +1444,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>-100</v>
@@ -1461,13 +1461,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1478,13 +1478,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1495,13 +1495,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>-100</v>
@@ -1512,13 +1512,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>-100</v>
@@ -1529,13 +1529,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>-100</v>
@@ -1546,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>-100</v>
@@ -1563,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>-100</v>
@@ -1580,13 +1580,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>-100</v>
@@ -1597,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>-100</v>
@@ -1614,13 +1614,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>-100</v>
@@ -1631,13 +1631,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1648,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>-100</v>
@@ -1665,13 +1665,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>-100</v>
@@ -1716,13 +1716,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>-100</v>
@@ -1733,13 +1733,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>-100</v>
@@ -1750,13 +1750,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32">
         <v>-100</v>
@@ -1767,13 +1767,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>-100</v>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>-100</v>
@@ -1801,13 +1801,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>-100</v>
@@ -1818,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>-100</v>
@@ -1835,13 +1835,13 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -1852,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>-100</v>
@@ -1869,13 +1869,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>-100</v>
@@ -1886,13 +1886,13 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>-100</v>
@@ -1903,13 +1903,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>-100</v>
@@ -1920,13 +1920,13 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>-100</v>
@@ -1954,13 +1954,13 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -1971,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46">
         <v>-100</v>
@@ -2005,13 +2005,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>-100</v>
@@ -2022,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48">
         <v>-100</v>
@@ -2039,13 +2039,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>-100</v>
@@ -2056,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2073,13 +2073,13 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2090,13 +2090,13 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>-100</v>
@@ -2107,13 +2107,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <v>-100</v>
@@ -2124,13 +2124,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54">
         <v>-100</v>
@@ -2141,13 +2141,13 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>-100</v>
@@ -2158,13 +2158,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>-100</v>
@@ -2175,13 +2175,13 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -2192,13 +2192,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>-100</v>
@@ -2209,13 +2209,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -2226,13 +2226,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60">
         <v>-100</v>
@@ -2243,13 +2243,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -2260,13 +2260,13 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -2277,13 +2277,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -2294,13 +2294,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64">
         <v>-100</v>
@@ -2311,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65">
         <v>-100</v>
@@ -2328,13 +2328,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66">
         <v>-100</v>
@@ -2345,13 +2345,13 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <v>-100</v>
@@ -2362,13 +2362,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -2379,13 +2379,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69">
         <v>-100</v>
@@ -2396,13 +2396,13 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70">
         <v>-100</v>
@@ -2413,13 +2413,13 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>-100</v>
@@ -2430,13 +2430,13 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>-100</v>
@@ -2447,13 +2447,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>-100</v>
@@ -2464,13 +2464,13 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>-100</v>
@@ -2481,13 +2481,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E75">
         <v>-100</v>
@@ -2498,13 +2498,13 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E77">
         <v>-100</v>
@@ -2532,13 +2532,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -2549,13 +2549,13 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -2566,13 +2566,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E80">
         <v>-100</v>
@@ -2583,13 +2583,13 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E81">
         <v>-100</v>
@@ -2600,13 +2600,13 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82">
         <v>-100</v>
@@ -2617,13 +2617,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E83">
         <v>-100</v>
@@ -2634,13 +2634,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>-100</v>
@@ -2651,13 +2651,13 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E85">
         <v>-100</v>
@@ -2668,13 +2668,13 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>-100</v>
@@ -2685,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C87">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E87">
         <v>-100</v>
@@ -2702,13 +2702,13 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>-100</v>
@@ -2719,13 +2719,13 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E89">
         <v>-100</v>
@@ -2736,13 +2736,13 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90">
         <v>-100</v>
@@ -2753,13 +2753,13 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E91">
         <v>-100</v>
@@ -2770,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92">
         <v>-100</v>
@@ -2787,13 +2787,13 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C93">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E94">
         <v>-100</v>
@@ -2821,13 +2821,13 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95">
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -2838,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96">
         <v>-100</v>
@@ -2855,13 +2855,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E97">
         <v>-100</v>
@@ -2872,13 +2872,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E98">
         <v>-100</v>
@@ -2889,13 +2889,13 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E99">
         <v>-100</v>
@@ -2906,13 +2906,13 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E100">
         <v>-100</v>
@@ -2923,13 +2923,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101">
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E101">
         <v>-100</v>
@@ -2940,13 +2940,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102">
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102">
         <v>-100</v>
@@ -2957,13 +2957,13 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103">
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E103">
         <v>-100</v>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -3025,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -3059,7 +3059,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -3076,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -3093,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C111">
         <v>7</v>
@@ -3110,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112">
         <v>7</v>
@@ -3127,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C113">
         <v>7</v>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -3161,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -3178,7 +3178,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -3195,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C117">
         <v>7</v>
@@ -3212,7 +3212,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C118">
         <v>7</v>
@@ -3229,7 +3229,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120">
         <v>7</v>
@@ -3263,7 +3263,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C121">
         <v>8</v>
@@ -3280,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C122">
         <v>8</v>
@@ -3297,7 +3297,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -3314,7 +3314,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -3331,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C125">
         <v>8</v>
@@ -3348,7 +3348,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C126">
         <v>8</v>
@@ -3365,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127">
         <v>8</v>
@@ -3382,7 +3382,7 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -3399,7 +3399,7 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129">
         <v>8</v>
@@ -3416,7 +3416,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -3433,7 +3433,7 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -3450,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -3467,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -3484,7 +3484,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C134">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -3518,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C136">
         <v>8</v>
@@ -3535,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137">
         <v>8</v>
@@ -3552,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C138">
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E138">
         <v>-100</v>
@@ -3569,13 +3569,13 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C139">
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E139">
         <v>-100</v>
@@ -3586,13 +3586,13 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C140">
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E140">
         <v>-100</v>
@@ -3603,13 +3603,13 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C141">
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E141">
         <v>-100</v>
@@ -3620,13 +3620,13 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C142">
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E142">
         <v>-100</v>
@@ -3637,13 +3637,13 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C143">
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E143">
         <v>-100</v>
@@ -3654,13 +3654,13 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C144">
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -3671,13 +3671,13 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C145">
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E145">
         <v>-100</v>
@@ -3688,13 +3688,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C146">
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E146">
         <v>-100</v>
@@ -3705,13 +3705,13 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C147">
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -3722,13 +3722,13 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148">
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E148">
         <v>-100</v>
@@ -3739,13 +3739,13 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C149">
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E149">
         <v>-100</v>
@@ -3756,13 +3756,13 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C150">
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E150">
         <v>-100</v>
@@ -3773,13 +3773,13 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C151">
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E151">
         <v>-100</v>
@@ -3790,13 +3790,13 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C152">
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E152">
         <v>-100</v>
@@ -3807,13 +3807,13 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C153">
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E153">
         <v>-100</v>
@@ -3824,13 +3824,13 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C154">
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E154">
         <v>-100</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C155">
         <v>10</v>
@@ -3858,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C156">
         <v>10</v>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C157">
         <v>10</v>
@@ -3892,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C158">
         <v>10</v>
@@ -3909,7 +3909,7 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C159">
         <v>10</v>
@@ -3926,7 +3926,7 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -3943,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C161">
         <v>10</v>
@@ -3960,7 +3960,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C162">
         <v>10</v>
@@ -3977,7 +3977,7 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C163">
         <v>10</v>
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>10</v>
@@ -4011,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -4028,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C166">
         <v>10</v>
@@ -4045,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C167">
         <v>10</v>
@@ -4062,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -4079,7 +4079,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C169">
         <v>10</v>
@@ -4096,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -4113,7 +4113,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C171">
         <v>10</v>
@@ -4130,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C172">
         <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>-100</v>
@@ -4147,13 +4147,13 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C173">
         <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <v>-100</v>
@@ -4164,13 +4164,13 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C174">
         <v>11</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E174">
         <v>-100</v>
@@ -4181,13 +4181,13 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C175">
         <v>11</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E175">
         <v>-100</v>
@@ -4198,13 +4198,13 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C176">
         <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E176">
         <v>-100</v>
@@ -4215,13 +4215,13 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C177">
         <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -4232,13 +4232,13 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C178">
         <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E178">
         <v>-100</v>
@@ -4249,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C179">
         <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <v>100</v>
@@ -4266,13 +4266,13 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C180">
         <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>-100</v>
@@ -4283,13 +4283,13 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C181">
         <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E181">
         <v>-100</v>
@@ -4300,13 +4300,13 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C182">
         <v>11</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E182">
         <v>-100</v>
@@ -4317,13 +4317,13 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C183">
         <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <v>100</v>
@@ -4334,13 +4334,13 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C184">
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -4351,13 +4351,13 @@
         <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C185">
         <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <v>-100</v>
@@ -4368,13 +4368,13 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C186">
         <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>-100</v>
@@ -4385,13 +4385,13 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C187">
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>-100</v>
@@ -4402,13 +4402,13 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C188">
         <v>11</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <v>-100</v>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC50C0-F39B-4442-971C-1880EF603557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C066E6C-6BD7-4A3F-9661-F8AE909C7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-14730" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="21060" windowHeight="15585" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="101">
   <si>
     <t>RW</t>
   </si>
@@ -315,6 +315,33 @@
   </si>
   <si>
     <t>Independent</t>
+  </si>
+  <si>
+    <t>wikipediaPage</t>
+  </si>
+  <si>
+    <t>Anura_Kumara_Dissanayake</t>
+  </si>
+  <si>
+    <t>A._S._P._Liyanage</t>
+  </si>
+  <si>
+    <t>Janaka_Ratnayake</t>
+  </si>
+  <si>
+    <t>M._A._Sumanthiran</t>
+  </si>
+  <si>
+    <t>Ranil_Wickremesinghe</t>
+  </si>
+  <si>
+    <t>Sarath_Fonseka</t>
+  </si>
+  <si>
+    <t>Sajith_Premadasa</t>
+  </si>
+  <si>
+    <t>Wijeyadasa_Rajapakshe</t>
   </si>
 </sst>
 </file>
@@ -885,24 +912,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -916,16 +944,19 @@
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,16 +970,19 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -962,16 +996,19 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -985,16 +1022,19 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1008,16 +1048,19 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1031,16 +1074,19 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1054,16 +1100,19 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1077,16 +1126,19 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1100,16 +1152,19 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1123,16 +1178,19 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1146,16 +1204,19 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1169,17 +1230,20 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
     <sortCondition ref="B2:B12"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
@@ -1195,6 +1259,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C066E6C-6BD7-4A3F-9661-F8AE909C7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F562D-836B-4866-A8C7-92E58865CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16200" windowWidth="21060" windowHeight="15585" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="9600" yWindow="-14730" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>twtrHandle</t>
-  </si>
-  <si>
     <t>imgFile</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
   </si>
   <si>
     <t>Wijeyadasa_Rajapakshe</t>
+  </si>
+  <si>
+    <t>xHandle</t>
   </si>
 </sst>
 </file>
@@ -744,13 +744,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +915,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>56</v>
@@ -944,16 +944,16 @@
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -979,7 +979,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -1005,7 +1005,7 @@
         <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1031,7 +1031,7 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -1057,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1213,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1282,22 +1282,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1305,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>-100</v>
@@ -1322,13 +1322,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>-100</v>
@@ -1339,13 +1339,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1356,13 +1356,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>-100</v>
@@ -1373,13 +1373,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1390,13 +1390,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>-100</v>
@@ -1407,13 +1407,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1424,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>-100</v>
@@ -1441,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1458,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1475,13 +1475,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1492,13 +1492,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>-100</v>
@@ -1509,13 +1509,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>-100</v>
@@ -1526,13 +1526,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1543,13 +1543,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1560,13 +1560,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>-100</v>
@@ -1577,13 +1577,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>-100</v>
@@ -1594,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>-100</v>
@@ -1611,13 +1611,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>-100</v>
@@ -1628,13 +1628,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>-100</v>
@@ -1645,13 +1645,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>-100</v>
@@ -1662,13 +1662,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>-100</v>
@@ -1679,13 +1679,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>-100</v>
@@ -1696,13 +1696,13 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1713,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>-100</v>
@@ -1730,13 +1730,13 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>-100</v>
@@ -1781,13 +1781,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>-100</v>
@@ -1798,13 +1798,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>-100</v>
@@ -1815,13 +1815,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32">
         <v>-100</v>
@@ -1832,13 +1832,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33">
         <v>-100</v>
@@ -1849,13 +1849,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>-100</v>
@@ -1866,13 +1866,13 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-100</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1900,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1934,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2002,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2036,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2087,7 +2087,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -2121,7 +2121,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2172,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>-100</v>
@@ -2189,13 +2189,13 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>-100</v>
@@ -2206,13 +2206,13 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>-100</v>
@@ -2223,13 +2223,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56">
         <v>-100</v>
@@ -2240,13 +2240,13 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -2257,13 +2257,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58">
         <v>-100</v>
@@ -2274,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -2291,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <v>-100</v>
@@ -2308,13 +2308,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -2325,13 +2325,13 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -2342,13 +2342,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -2359,13 +2359,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>-100</v>
@@ -2376,13 +2376,13 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>-100</v>
@@ -2393,13 +2393,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>-100</v>
@@ -2410,13 +2410,13 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>-100</v>
@@ -2427,13 +2427,13 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -2444,13 +2444,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E69">
         <v>-100</v>
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -2512,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2546,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2563,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2580,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2597,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2614,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2631,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2648,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -2665,7 +2665,7 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2682,7 +2682,7 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -2716,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2733,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -2818,7 +2818,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -2835,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -2852,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -2869,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -2886,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -2903,7 +2903,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C96">
         <v>6</v>
@@ -2920,7 +2920,7 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -2937,7 +2937,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -2954,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -2971,7 +2971,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100">
         <v>6</v>
@@ -2988,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -3022,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103">
         <v>6</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104">
         <v>7</v>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -3073,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -3090,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -3124,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -3158,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111">
         <v>7</v>
@@ -3175,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C112">
         <v>7</v>
@@ -3192,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113">
         <v>7</v>
@@ -3209,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -3226,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -3243,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -3260,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C117">
         <v>7</v>
@@ -3277,7 +3277,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118">
         <v>7</v>
@@ -3294,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C119">
         <v>7</v>
@@ -3311,7 +3311,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120">
         <v>7</v>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C121">
         <v>8</v>
@@ -3345,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C122">
         <v>8</v>
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -3396,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C125">
         <v>8</v>
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C126">
         <v>8</v>
@@ -3430,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C127">
         <v>8</v>
@@ -3447,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C128">
         <v>8</v>
@@ -3464,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C129">
         <v>8</v>
@@ -3481,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -3498,7 +3498,7 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -3515,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -3532,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -3549,7 +3549,7 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C134">
         <v>8</v>
@@ -3566,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -3583,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C136">
         <v>8</v>
@@ -3600,7 +3600,7 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C137">
         <v>8</v>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C138">
         <v>9</v>
@@ -3634,7 +3634,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C139">
         <v>9</v>
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C140">
         <v>9</v>
@@ -3668,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -3685,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -3702,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C144">
         <v>9</v>
@@ -3736,7 +3736,7 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -3753,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146">
         <v>9</v>
@@ -3770,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -3787,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -3804,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C149">
         <v>9</v>
@@ -3821,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C150">
         <v>9</v>
@@ -3838,7 +3838,7 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C151">
         <v>9</v>
@@ -3855,7 +3855,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C152">
         <v>9</v>
@@ -3872,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C153">
         <v>9</v>
@@ -3889,7 +3889,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C154">
         <v>9</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C155">
         <v>10</v>
@@ -3923,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C156">
         <v>10</v>
@@ -3940,7 +3940,7 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C157">
         <v>10</v>
@@ -3957,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C158">
         <v>10</v>
@@ -3974,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C159">
         <v>10</v>
@@ -3991,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C160">
         <v>10</v>
@@ -4008,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C161">
         <v>10</v>
@@ -4025,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C162">
         <v>10</v>
@@ -4042,7 +4042,7 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C163">
         <v>10</v>
@@ -4059,7 +4059,7 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C164">
         <v>10</v>
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>10</v>
@@ -4093,7 +4093,7 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C166">
         <v>10</v>
@@ -4110,7 +4110,7 @@
         <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C167">
         <v>10</v>
@@ -4127,7 +4127,7 @@
         <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168">
         <v>10</v>
@@ -4144,7 +4144,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C169">
         <v>10</v>
@@ -4161,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -4178,7 +4178,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C171">
         <v>10</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C172">
         <v>11</v>
@@ -4212,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C173">
         <v>11</v>
@@ -4229,7 +4229,7 @@
         <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C174">
         <v>11</v>
@@ -4246,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C175">
         <v>11</v>
@@ -4263,7 +4263,7 @@
         <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C176">
         <v>11</v>
@@ -4280,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C177">
         <v>11</v>
@@ -4297,7 +4297,7 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C178">
         <v>11</v>
@@ -4314,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C179">
         <v>11</v>
@@ -4331,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C180">
         <v>11</v>
@@ -4348,7 +4348,7 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C181">
         <v>11</v>
@@ -4365,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -4382,7 +4382,7 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C183">
         <v>11</v>
@@ -4399,7 +4399,7 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184">
         <v>11</v>
@@ -4416,7 +4416,7 @@
         <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C185">
         <v>11</v>
@@ -4433,7 +4433,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C186">
         <v>11</v>
@@ -4450,7 +4450,7 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C187">
         <v>11</v>
@@ -4467,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C188">
         <v>11</v>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EF0086-A19F-471F-8E0E-6E08FEBE4B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0322C742-2D26-4D59-BD2D-EC48578C4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>Voted for the 20th Amendment</t>
   </si>
   <si>
-    <t>Participated in or Associated with 1987–1989 JVP insurrection</t>
-  </si>
-  <si>
     <t>Associated with Communist Ideologies</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>Voted20A</t>
+  </si>
+  <si>
+    <t>Participated in or Associated with 1987-1989 JVP insurrection</t>
   </si>
 </sst>
 </file>
@@ -444,6 +444,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -466,9 +469,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -566,10 +566,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D188" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D188" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D188" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID"/>
     <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score"/>
     <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="notes &amp; references"/>
@@ -898,7 +898,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,20 +916,20 @@
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -937,23 +937,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -961,15 +961,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>80</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -1115,10 +1115,10 @@
         <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -1187,7 +1187,7 @@
         <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J171" sqref="J171"/>
+      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>63</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>66</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>66</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>63</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>67</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>38</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
         <v>66</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
         <v>31</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>67</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
         <v>38</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
         <v>63</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
         <v>66</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
         <v>67</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
         <v>38</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
         <v>35</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>63</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
         <v>66</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>67</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>46</v>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
         <v>38</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
         <v>63</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
         <v>66</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>31</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>67</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>46</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>38</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
         <v>35</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" t="s">
         <v>63</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113" t="s">
         <v>66</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
         <v>67</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
         <v>46</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117" t="s">
         <v>38</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
         <v>12</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
         <v>35</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
         <v>63</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
         <v>66</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B125" t="s">
         <v>31</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
         <v>67</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B127" t="s">
         <v>46</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B128" t="s">
         <v>38</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B131" t="s">
         <v>35</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" t="s">
         <v>63</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B135" t="s">
         <v>66</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
         <v>31</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" t="s">
         <v>67</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
         <v>46</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B139" t="s">
         <v>38</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" t="s">
         <v>25</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B145" t="s">
         <v>63</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B146" t="s">
         <v>66</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B147" t="s">
         <v>31</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B148" t="s">
         <v>67</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B149" t="s">
         <v>46</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B150" t="s">
         <v>38</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B153" t="s">
         <v>35</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B156" t="s">
         <v>63</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B157" t="s">
         <v>66</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B158" t="s">
         <v>31</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B159" t="s">
         <v>67</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B160" t="s">
         <v>46</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B161" t="s">
         <v>38</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B162" t="s">
         <v>0</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B164" t="s">
         <v>35</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B166" t="s">
         <v>25</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B167" t="s">
         <v>63</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B168" t="s">
         <v>66</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B169" t="s">
         <v>31</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B170" t="s">
         <v>67</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B171" t="s">
         <v>46</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B172" t="s">
         <v>38</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B173" t="s">
         <v>0</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B175" t="s">
         <v>35</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B178" t="s">
         <v>63</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B179" t="s">
         <v>66</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B180" t="s">
         <v>31</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B181" t="s">
         <v>67</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B182" t="s">
         <v>46</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B183" t="s">
         <v>38</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B185" t="s">
         <v>12</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B186" t="s">
         <v>35</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0322C742-2D26-4D59-BD2D-EC48578C4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43002870-E020-4EF5-A42E-2661626DA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="14790" yWindow="-16200" windowWidth="14115" windowHeight="15585" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="124">
   <si>
     <t>RW</t>
   </si>
@@ -56,9 +56,6 @@
     <t>1244.jpg</t>
   </si>
   <si>
-    <t>UNP</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>1521.jpg</t>
   </si>
   <si>
-    <t>SLFP</t>
-  </si>
-  <si>
     <t>JR</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>OH.png</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>OshalaHerath</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>score</t>
   </si>
   <si>
-    <t>notes &amp; references</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
     <t>Member or Former-Member of the SLPP</t>
   </si>
   <si>
-    <t>Over 70% Attendance in the latest Parliament</t>
-  </si>
-  <si>
     <t>Previous Affiliations with Rajapaksa Governments</t>
   </si>
   <si>
@@ -287,12 +272,6 @@
     <t>Associated with Communist Ideologies</t>
   </si>
   <si>
-    <t>Declared Assets in Public</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
     <t>Has Ongoing Criminal Case(s)</t>
   </si>
   <si>
@@ -384,13 +363,61 @@
   </si>
   <si>
     <t>Participated in or Associated with 1987-1989 JVP insurrection</t>
+  </si>
+  <si>
+    <t>Declared Assets in Public in at least one of the last 5 years</t>
+  </si>
+  <si>
+    <t>https://www.tisrilanka.org/mpassets/</t>
+  </si>
+  <si>
+    <t>Latest declaration in 2023/24 [https://www.tisrilanka.org/mpassets/]</t>
+  </si>
+  <si>
+    <t>refs</t>
+  </si>
+  <si>
+    <t>Not MP</t>
+  </si>
+  <si>
+    <t>Not currently MP</t>
+  </si>
+  <si>
+    <t>Over 50% Attendance in the Ninth Parliament</t>
+  </si>
+  <si>
+    <t>https://www.parliament.lk</t>
+  </si>
+  <si>
+    <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>parliamentMemberNum</t>
+  </si>
+  <si>
+    <t>276/383 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/3194]</t>
+  </si>
+  <si>
+    <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
+  </si>
+  <si>
+    <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
+  </si>
+  <si>
+    <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
+  </si>
+  <si>
+    <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +428,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,17 +464,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -543,16 +582,16 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7A9D65A5-2FF1-44CA-8A2C-C03A7B70DA2B}" name="id" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{3E9A1C52-D15F-4982-BE13-AB8DB4B66E3B}" name="criterion"/>
-    <tableColumn id="3" xr3:uid="{BDDCF579-1F3B-40B7-9103-4EAF45C86131}" name="sources"/>
+    <tableColumn id="3" xr3:uid="{BDDCF579-1F3B-40B7-9103-4EAF45C86131}" name="refs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:G12" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:H12" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:H12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6437F240-079A-42DB-BB9D-ED5CDE44AE5B}" name="id"/>
     <tableColumn id="2" xr3:uid="{EE4FEA58-8904-438E-B08C-31203DE9E210}" name="firstName"/>
     <tableColumn id="3" xr3:uid="{150A282E-3249-4864-A960-348FB6C95ECF}" name="lastName"/>
@@ -560,6 +599,7 @@
     <tableColumn id="5" xr3:uid="{9B4ADB5A-BFD2-4E8F-B977-E9D08884066B}" name="imgFile"/>
     <tableColumn id="6" xr3:uid="{11CBC875-0A00-4892-B37A-5A15F8521C20}" name="xHandle"/>
     <tableColumn id="7" xr3:uid="{37EDD734-24F6-4219-BA2A-E950BA881122}" name="wikipediaPage"/>
+    <tableColumn id="8" xr3:uid="{FFFAEB1F-5C31-4209-8874-093C6430BC7E}" name="parliamentMemberNum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,7 +612,7 @@
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID"/>
     <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score"/>
-    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="notes &amp; references"/>
+    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="refs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -897,162 +937,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1071,20 +1117,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E25B1E28-6746-448D-A28F-A3231083DBB5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B0441A64-8B19-412B-8F15-BE47940C72FE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,168 +1148,189 @@
     <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
       <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1279,99 +1350,114 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
       <c r="G11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H12">
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -1390,9 +1476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,24 +1491,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>-100</v>
@@ -1430,10 +1516,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>-100</v>
@@ -1441,10 +1527,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>-100</v>
@@ -1452,21 +1538,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>-100</v>
@@ -1474,10 +1563,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>-100</v>
@@ -1485,7 +1574,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1496,10 +1585,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>-100</v>
@@ -1507,10 +1596,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>-100</v>
@@ -1518,10 +1607,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>-100</v>
@@ -1529,10 +1618,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>-100</v>
@@ -1540,194 +1629,228 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>-100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <f>-100</f>
+        <v>-100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
       <c r="C27">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1736,23 +1859,23 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>-100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>-100</v>
@@ -1760,10 +1883,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>-100</v>
@@ -1771,10 +1894,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>-100</v>
@@ -1782,10 +1905,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>-100</v>
@@ -1793,10 +1916,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <v>-100</v>
@@ -1804,10 +1927,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>-100</v>
@@ -1815,10 +1938,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>-100</v>
@@ -1826,10 +1949,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>-100</v>
@@ -1837,10 +1960,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>-100</v>
@@ -1848,7 +1971,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1859,10 +1982,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>-100</v>
@@ -1870,10 +1993,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>-100</v>
@@ -1881,10 +2004,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>-100</v>
@@ -1892,10 +2015,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>-100</v>
@@ -1903,10 +2026,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>-100</v>
@@ -1914,10 +2037,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>-100</v>
@@ -1925,10 +2048,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48">
         <v>-100</v>
@@ -1936,10 +2059,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>-100</v>
@@ -1947,10 +2070,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50">
         <v>-100</v>
@@ -1958,10 +2081,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>-100</v>
@@ -1969,7 +2092,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -1980,10 +2103,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>-100</v>
@@ -1991,10 +2114,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54">
         <v>-100</v>
@@ -2002,10 +2125,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>-100</v>
@@ -2013,10 +2136,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>-100</v>
@@ -2024,10 +2147,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>100</v>
@@ -2035,10 +2158,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>-100</v>
@@ -2046,10 +2169,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59">
         <v>-100</v>
@@ -2057,10 +2180,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>-100</v>
@@ -2068,10 +2191,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C61">
         <v>-100</v>
@@ -2079,10 +2202,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>-100</v>
@@ -2090,7 +2213,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
@@ -2101,10 +2224,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>-100</v>
@@ -2112,10 +2235,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>-100</v>
@@ -2123,10 +2246,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>-100</v>
@@ -2134,10 +2257,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>-100</v>
@@ -2145,10 +2268,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>100</v>
@@ -2156,10 +2279,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>-100</v>
@@ -2167,10 +2290,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>-100</v>
@@ -2178,10 +2301,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C71">
         <v>100</v>
@@ -2189,10 +2312,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <v>-100</v>
@@ -2200,10 +2323,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73">
         <v>-100</v>
@@ -2211,7 +2334,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
@@ -2222,10 +2345,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>-100</v>
@@ -2233,10 +2356,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>-100</v>
@@ -2244,10 +2367,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>100</v>
@@ -2255,10 +2378,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78">
         <v>-100</v>
@@ -2266,10 +2389,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79">
         <v>-100</v>
@@ -2277,10 +2400,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80">
         <v>-100</v>
@@ -2288,10 +2411,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C81">
         <v>-100</v>
@@ -2299,10 +2422,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C82">
         <v>-100</v>
@@ -2310,10 +2433,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83">
         <v>-100</v>
@@ -2321,10 +2444,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C84">
         <v>-100</v>
@@ -2332,7 +2455,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
@@ -2343,10 +2466,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <v>100</v>
@@ -2354,10 +2477,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>-100</v>
@@ -2365,10 +2488,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88">
         <v>-100</v>
@@ -2376,10 +2499,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89">
         <v>-100</v>
@@ -2387,10 +2510,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C90">
         <v>100</v>
@@ -2398,10 +2521,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C91">
         <v>-100</v>
@@ -2409,10 +2532,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>-100</v>
@@ -2420,10 +2543,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C93">
         <v>-100</v>
@@ -2431,10 +2554,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C94">
         <v>-100</v>
@@ -2442,10 +2565,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95">
         <v>-100</v>
@@ -2453,7 +2576,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
@@ -2464,10 +2587,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>100</v>
@@ -2475,10 +2598,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98">
         <v>-100</v>
@@ -2486,10 +2609,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99">
         <v>-100</v>
@@ -2497,10 +2620,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100">
         <v>-100</v>
@@ -2508,10 +2631,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -2519,10 +2642,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2530,10 +2653,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2541,10 +2664,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C104">
         <v>100</v>
@@ -2552,10 +2675,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C105">
         <v>100</v>
@@ -2563,10 +2686,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C106">
         <v>-100</v>
@@ -2574,7 +2697,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
         <v>0</v>
@@ -2585,10 +2708,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108">
         <v>-100</v>
@@ -2596,10 +2719,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2607,10 +2730,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110">
         <v>-100</v>
@@ -2618,10 +2741,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111">
         <v>-100</v>
@@ -2629,10 +2752,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C112">
         <v>-100</v>
@@ -2640,10 +2763,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C113">
         <v>-100</v>
@@ -2651,10 +2774,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C114">
         <v>-100</v>
@@ -2662,10 +2785,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C115">
         <v>-100</v>
@@ -2673,10 +2796,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C116">
         <v>-100</v>
@@ -2684,10 +2807,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117">
         <v>-100</v>
@@ -2695,7 +2818,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B118" t="s">
         <v>0</v>
@@ -2706,10 +2829,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119">
         <v>-100</v>
@@ -2717,10 +2840,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C120">
         <v>-100</v>
@@ -2728,10 +2851,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>-100</v>
@@ -2739,10 +2862,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122">
         <v>100</v>
@@ -2750,10 +2873,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C123">
         <v>-100</v>
@@ -2761,10 +2884,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C124">
         <v>-100</v>
@@ -2772,10 +2895,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C125">
         <v>-100</v>
@@ -2783,10 +2906,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C126">
         <v>-100</v>
@@ -2794,10 +2917,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C127">
         <v>-100</v>
@@ -2805,10 +2928,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C128">
         <v>-100</v>
@@ -2816,7 +2939,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
         <v>0</v>
@@ -2827,10 +2950,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130">
         <v>-100</v>
@@ -2838,10 +2961,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C131">
         <v>-100</v>
@@ -2849,10 +2972,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>-100</v>
@@ -2860,10 +2983,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>100</v>
@@ -2871,10 +2994,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C134">
         <v>100</v>
@@ -2882,10 +3005,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C135">
         <v>-100</v>
@@ -2893,10 +3016,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <v>-100</v>
@@ -2904,10 +3027,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C137">
         <v>100</v>
@@ -2915,10 +3038,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C138">
         <v>-100</v>
@@ -2926,10 +3049,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C139">
         <v>-100</v>
@@ -2937,7 +3060,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B140" t="s">
         <v>0</v>
@@ -2948,10 +3071,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141">
         <v>-100</v>
@@ -2959,10 +3082,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C142">
         <v>-100</v>
@@ -2970,10 +3093,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>100</v>
@@ -2981,10 +3104,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C144">
         <v>-100</v>
@@ -2992,10 +3115,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C145">
         <v>-100</v>
@@ -3003,10 +3126,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C146">
         <v>-100</v>
@@ -3014,10 +3137,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C147">
         <v>-100</v>
@@ -3025,10 +3148,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C148">
         <v>-100</v>
@@ -3036,10 +3159,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C149">
         <v>-100</v>
@@ -3047,10 +3170,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C150">
         <v>-100</v>
@@ -3058,7 +3181,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
         <v>0</v>
@@ -3069,10 +3192,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152">
         <v>-100</v>
@@ -3080,10 +3203,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C153">
         <v>-100</v>
@@ -3091,10 +3214,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154">
         <v>-100</v>
@@ -3102,10 +3225,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>100</v>
@@ -3113,10 +3236,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B156" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C156">
         <v>100</v>
@@ -3124,10 +3247,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B157" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3135,10 +3258,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C158">
         <v>100</v>
@@ -3146,10 +3269,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C159">
         <v>100</v>
@@ -3157,10 +3280,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C160">
         <v>100</v>
@@ -3168,10 +3291,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C161">
         <v>100</v>
@@ -3179,7 +3302,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B162" t="s">
         <v>0</v>
@@ -3190,10 +3313,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C163">
         <v>-100</v>
@@ -3201,10 +3324,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C164">
         <v>-100</v>
@@ -3212,10 +3335,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165">
         <v>100</v>
@@ -3223,10 +3346,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C166">
         <v>-100</v>
@@ -3234,10 +3357,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C167">
         <v>-100</v>
@@ -3245,10 +3368,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C168">
         <v>-100</v>
@@ -3256,10 +3379,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C169">
         <v>-100</v>
@@ -3267,10 +3390,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C170">
         <v>-100</v>
@@ -3278,10 +3401,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C171">
         <v>-100</v>
@@ -3289,10 +3412,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C172">
         <v>-100</v>
@@ -3300,7 +3423,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B173" t="s">
         <v>0</v>
@@ -3311,10 +3434,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174">
         <v>-100</v>
@@ -3322,10 +3445,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C175">
         <v>-100</v>
@@ -3333,10 +3456,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176">
         <v>-100</v>
@@ -3344,10 +3467,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C177">
         <v>100</v>
@@ -3355,10 +3478,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B178" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C178">
         <v>-100</v>
@@ -3366,10 +3489,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B179" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C179">
         <v>-100</v>
@@ -3377,10 +3500,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B180" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C180">
         <v>-100</v>
@@ -3388,10 +3511,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B181" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C181">
         <v>-100</v>
@@ -3399,10 +3522,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C182">
         <v>-100</v>
@@ -3410,10 +3533,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C183">
         <v>-100</v>
@@ -3421,7 +3544,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -3432,10 +3555,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185">
         <v>-100</v>
@@ -3443,10 +3566,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B186" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C186">
         <v>-100</v>
@@ -3454,10 +3577,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187">
         <v>100</v>
@@ -3465,10 +3588,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C188">
         <v>-100</v>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43002870-E020-4EF5-A42E-2661626DA337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459B94F-6BA5-471A-AC61-65AA4BA27266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14790" yWindow="-16200" windowWidth="14115" windowHeight="15585" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>Not currently MP</t>
   </si>
   <si>
-    <t>Over 50% Attendance in the Ninth Parliament</t>
-  </si>
-  <si>
     <t>https://www.parliament.lk</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
+  </si>
+  <si>
+    <t>Over 70% Attendance in the Ninth Parliament</t>
   </si>
 </sst>
 </file>
@@ -468,14 +468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,10 +974,10 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,7 +1170,7 @@
         <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1217,13 +1216,13 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1243,13 +1242,13 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1274,7 +1273,7 @@
       <c r="G5" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5">
         <v>3194</v>
       </c>
     </row>
@@ -1295,13 +1294,13 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1324,10 +1323,10 @@
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1399,10 +1398,10 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>3038</v>
@@ -1476,9 +1475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1637,7 @@
         <v>-100</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,7 +1679,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,7 +1735,7 @@
         <v>-100</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1763,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +1778,7 @@
         <v>-100</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCAF7A1-19EB-4398-B52D-BB8DA2131894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552629F-B5EB-490A-89E8-30EEA8AFF133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
   <si>
     <t>RW</t>
   </si>
@@ -514,6 +514,45 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sri_Lanka_Podujana_Peramuna</t>
+  </si>
+  <si>
+    <t>linkedInID</t>
+  </si>
+  <si>
+    <t>oshalaherath</t>
+  </si>
+  <si>
+    <t>sajithpremadasa</t>
+  </si>
+  <si>
+    <t>anuradissanayake</t>
+  </si>
+  <si>
+    <t>field-marshal-sarath-fonseka-465815179</t>
+  </si>
+  <si>
+    <t>wijeyadasa-rajapakshe</t>
+  </si>
+  <si>
+    <t>m-sumanthiran-88379165</t>
+  </si>
+  <si>
+    <t>manthriLKID</t>
+  </si>
+  <si>
+    <t>anura-kumara-dissanayaka</t>
+  </si>
+  <si>
+    <t>m-a-sumanthiran</t>
+  </si>
+  <si>
+    <t>ranil-wickremesinghe</t>
+  </si>
+  <si>
+    <t>sarath-fonseka</t>
+  </si>
+  <si>
+    <t>sajith-premadasa</t>
   </si>
 </sst>
 </file>
@@ -600,6 +639,18 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -623,18 +674,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -716,9 +755,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:H12" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:H12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:J12" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:J12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6437F240-079A-42DB-BB9D-ED5CDE44AE5B}" name="id"/>
     <tableColumn id="2" xr3:uid="{EE4FEA58-8904-438E-B08C-31203DE9E210}" name="firstName"/>
     <tableColumn id="3" xr3:uid="{150A282E-3249-4864-A960-348FB6C95ECF}" name="lastName"/>
@@ -727,19 +766,21 @@
     <tableColumn id="6" xr3:uid="{11CBC875-0A00-4892-B37A-5A15F8521C20}" name="xHandle"/>
     <tableColumn id="7" xr3:uid="{37EDD734-24F6-4219-BA2A-E950BA881122}" name="wikipediaPage"/>
     <tableColumn id="8" xr3:uid="{FFFAEB1F-5C31-4209-8874-093C6430BC7E}" name="parliamentMemberNum"/>
+    <tableColumn id="9" xr3:uid="{58E6440A-2D35-4668-AA97-84FAE7C27661}" name="linkedInID"/>
+    <tableColumn id="10" xr3:uid="{CB568B76-66B3-439B-A7F5-58AB4D2A0541}" name="manthriLKID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D166" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="refs" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="refs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,7 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1258,24 +1299,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" customWidth="1"/>
     <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -1300,8 +1345,14 @@
       <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1326,8 +1377,14 @@
       <c r="H2">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1352,8 +1409,14 @@
       <c r="H3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1378,8 +1441,14 @@
       <c r="H4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1404,8 +1473,14 @@
       <c r="H5">
         <v>3194</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1430,8 +1505,14 @@
       <c r="H6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1456,8 +1537,14 @@
       <c r="H7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1482,8 +1569,14 @@
       <c r="H8">
         <v>1244</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1508,8 +1601,14 @@
       <c r="H9">
         <v>3135</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1633,14 @@
       <c r="H10">
         <v>3038</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1560,8 +1665,14 @@
       <c r="H11">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1585,6 +1696,12 @@
       </c>
       <c r="H12">
         <v>1521</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3761,6 +3878,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A113:A128 A87:A88 A90:A105 A107:A111 A130:A145 A147:A162 A164:A166">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A129">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3831,18 +3960,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A128 A87:A88 A90:A105 A107:A111 A130:A145 A147:A162 A164:A166">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8552629F-B5EB-490A-89E8-30EEA8AFF133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178F91F-3E72-488D-AA0C-F41098DB5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Criteria" sheetId="1" r:id="rId1"/>
-    <sheet name="Candidates" sheetId="2" r:id="rId2"/>
+    <sheet name="Candidates" sheetId="2" r:id="rId1"/>
+    <sheet name="Criteria" sheetId="1" r:id="rId2"/>
     <sheet name="Criterion x Candidate" sheetId="3" r:id="rId3"/>
     <sheet name="Name List" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="194">
   <si>
     <t>RW</t>
   </si>
@@ -553,6 +553,75 @@
   </si>
   <si>
     <t>sajith-premadasa</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Has a University Degree or Higher Education</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Has No History of Corruption Charges</t>
+  </si>
+  <si>
+    <t>Minister</t>
+  </si>
+  <si>
+    <t>Has Held a Ministerial Position in the Past</t>
+  </si>
+  <si>
+    <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+  </si>
+  <si>
+    <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+  </si>
+  <si>
+    <t>BSc in Physics from the University of Madras, Attorney at Law [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+  </si>
+  <si>
+    <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+  </si>
+  <si>
+    <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+  </si>
+  <si>
+    <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+  </si>
+  <si>
+    <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+  </si>
+  <si>
+    <t>While he has faced legal battles and imprisonment, these were related to military and political disputes rather than corruption charges. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+  </si>
+  <si>
+    <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
+  </si>
+  <si>
+    <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+  </si>
+  <si>
+    <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+  </si>
+  <si>
+    <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
+  </si>
+  <si>
+    <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+  </si>
+  <si>
+    <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+  </si>
+  <si>
+    <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+  </si>
+  <si>
+    <t>Leader of the opposition, has faced allegations and scrutiny, although not all allegations have led to formal charges. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+  </si>
+  <si>
+    <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
   </si>
 </sst>
 </file>
@@ -676,6 +745,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -698,9 +770,6 @@
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -740,22 +809,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9C2D0-CB42-46D8-A906-6E34FBD50C01}" name="Table1" displayName="Table1" ref="A1:C16" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:C16" xr:uid="{7BA9C2D0-CB42-46D8-A906-6E34FBD50C01}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition ref="A1:A16"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A9D65A5-2FF1-44CA-8A2C-C03A7B70DA2B}" name="id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3E9A1C52-D15F-4982-BE13-AB8DB4B66E3B}" name="criterion"/>
-    <tableColumn id="3" xr3:uid="{BDDCF579-1F3B-40B7-9103-4EAF45C86131}" name="refs"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:J12" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:J12" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:J12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6437F240-079A-42DB-BB9D-ED5CDE44AE5B}" name="id"/>
@@ -773,9 +827,27 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9C2D0-CB42-46D8-A906-6E34FBD50C01}" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:C19" xr:uid="{7BA9C2D0-CB42-46D8-A906-6E34FBD50C01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7A9D65A5-2FF1-44CA-8A2C-C03A7B70DA2B}" name="id" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3E9A1C52-D15F-4982-BE13-AB8DB4B66E3B}" name="criterion"/>
+    <tableColumn id="3" xr3:uid="{BDDCF579-1F3B-40B7-9103-4EAF45C86131}" name="refs"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D166" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D166" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D199" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D199" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D199">
+    <sortCondition ref="A1:A199"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID" dataDxfId="2"/>
@@ -1102,11 +1174,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>3194</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8">
+        <v>1244</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>3135</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10">
+        <v>3038</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11">
+        <v>140</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <v>1521</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,109 +1650,133 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1284,10 +1799,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E25B1E28-6746-448D-A28F-A3231083DBB5}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{B0441A64-8B19-412B-8F15-BE47940C72FE}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{811F2016-227D-434D-A378-86B87878B3D8}"/>
-    <hyperlink ref="C16" r:id="rId4" xr:uid="{CAFEC57D-AE79-4B09-B40A-7CA6435FEF3A}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{B54F8777-80B6-4067-9A70-77B35D220B06}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{4BB8E6F5-861E-4AF4-9F51-689F3D18103F}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{811F2016-227D-434D-A378-86B87878B3D8}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{CAFEC57D-AE79-4B09-B40A-7CA6435FEF3A}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{B54F8777-80B6-4067-9A70-77B35D220B06}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{4BB8E6F5-861E-4AF4-9F51-689F3D18103F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -1297,432 +1812,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2">
-        <v>112</v>
-      </c>
-      <c r="I2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>3194</v>
-      </c>
-      <c r="I5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8">
-        <v>1244</v>
-      </c>
-      <c r="I8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9">
-        <v>3135</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10">
-        <v>3038</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11">
-        <v>140</v>
-      </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12">
-        <v>1521</v>
-      </c>
-      <c r="I12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-    <sortCondition ref="A2:A12"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1826,7 @@
     <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="121.44140625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -2129,7 +2225,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>95</v>
       </c>
@@ -2140,7 +2236,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -2151,9 +2247,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>60</v>
@@ -2162,9 +2258,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>62</v>
@@ -2173,9 +2269,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>29</v>
@@ -2184,9 +2280,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>63</v>
@@ -2195,9 +2291,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>44</v>
@@ -2206,9 +2302,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>36</v>
@@ -2217,20 +2313,23 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>11</v>
@@ -2238,10 +2337,13 @@
       <c r="C42" s="5">
         <v>-100</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>33</v>
@@ -2250,31 +2352,37 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>60</v>
@@ -2283,9 +2391,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>62</v>
@@ -2294,9 +2402,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>29</v>
@@ -2307,7 +2415,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>63</v>
@@ -2318,7 +2426,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>44</v>
@@ -2329,7 +2437,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>36</v>
@@ -2340,21 +2448,18 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="5">
-        <v>100</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>120</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>11</v>
@@ -2365,7 +2470,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>33</v>
@@ -2376,7 +2481,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>5</v>
@@ -2387,7 +2492,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>24</v>
@@ -2398,21 +2503,18 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="5">
-        <v>100</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>121</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>62</v>
@@ -2423,7 +2525,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>29</v>
@@ -2434,7 +2536,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>63</v>
@@ -2445,7 +2547,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>44</v>
@@ -2456,7 +2558,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>36</v>
@@ -2467,18 +2569,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -2489,7 +2594,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>33</v>
@@ -2500,7 +2605,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>5</v>
@@ -2511,7 +2616,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>24</v>
@@ -2522,7 +2627,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>60</v>
@@ -2531,12 +2636,12 @@
         <v>100</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>62</v>
@@ -2547,43 +2652,49 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>36</v>
@@ -2594,7 +2705,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>0</v>
@@ -2603,12 +2714,12 @@
         <v>100</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -2619,7 +2730,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>33</v>
@@ -2630,7 +2741,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>5</v>
@@ -2639,34 +2750,40 @@
         <v>100</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>62</v>
@@ -2677,7 +2794,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>29</v>
@@ -2688,7 +2805,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>63</v>
@@ -2699,7 +2816,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>44</v>
@@ -2710,7 +2827,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>36</v>
@@ -2721,7 +2838,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>0</v>
@@ -2732,21 +2849,18 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="5">
-        <v>100</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>126</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>33</v>
@@ -2757,7 +2871,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>5</v>
@@ -2768,7 +2882,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>24</v>
@@ -2779,7 +2893,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>60</v>
@@ -2788,12 +2902,12 @@
         <v>100</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>62</v>
@@ -2804,7 +2918,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>29</v>
@@ -2815,7 +2929,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>63</v>
@@ -2823,10 +2937,13 @@
       <c r="C93" s="5">
         <v>-100</v>
       </c>
+      <c r="D93" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>44</v>
@@ -2837,7 +2954,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>36</v>
@@ -2848,18 +2965,21 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>11</v>
@@ -2867,13 +2987,10 @@
       <c r="C97" s="5">
         <v>-100</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>33</v>
@@ -2884,18 +3001,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>24</v>
@@ -2906,79 +3026,73 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C101" s="5">
-        <v>100</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>129</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C102" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="5">
-        <v>100</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>130</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C105" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C106" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>0</v>
@@ -2986,13 +3100,10 @@
       <c r="C107" s="5">
         <v>-100</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>11</v>
@@ -3001,37 +3112,34 @@
         <v>100</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C109" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="5">
-        <v>100</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>132</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>24</v>
@@ -3042,18 +3150,21 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>62</v>
@@ -3064,7 +3175,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>29</v>
@@ -3075,7 +3186,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>63</v>
@@ -3086,7 +3197,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>44</v>
@@ -3097,7 +3208,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>36</v>
@@ -3108,7 +3219,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>0</v>
@@ -3117,45 +3228,54 @@
         <v>100</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C120" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C121" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>24</v>
@@ -3164,12 +3284,12 @@
         <v>100</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>60</v>
@@ -3178,12 +3298,12 @@
         <v>100</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>62</v>
@@ -3194,7 +3314,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>29</v>
@@ -3205,21 +3325,18 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C126" s="5">
-        <v>100</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>138</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>44</v>
@@ -3230,7 +3347,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>36</v>
@@ -3241,7 +3358,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>0</v>
@@ -3250,9 +3367,9 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>11</v>
@@ -3260,10 +3377,13 @@
       <c r="C130" s="5">
         <v>-100</v>
       </c>
+      <c r="D130" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>33</v>
@@ -3274,101 +3394,101 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="5">
-        <v>100</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>137</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="5">
-        <v>100</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>137</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C134" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C136" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C138" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>0</v>
@@ -3376,152 +3496,143 @@
       <c r="C140" s="5">
         <v>-100</v>
       </c>
+      <c r="D140" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C142" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C143" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C144" s="5">
-        <v>100</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>139</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C145" s="5">
-        <v>100</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>140</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C146" s="5">
-        <v>0</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>141</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="5">
-        <v>100</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>143</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C148" s="5">
-        <v>100</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>142</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C149" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C150" s="5">
-        <v>0</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>141</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C151" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>11</v>
@@ -3529,13 +3640,10 @@
       <c r="C152" s="5">
         <v>-100</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>33</v>
@@ -3543,139 +3651,118 @@
       <c r="C153" s="5">
         <v>-100</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="5">
-        <v>100</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>146</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C155" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C157" s="5">
-        <v>0</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C158" s="5">
-        <v>0</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C159" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C160" s="5">
-        <v>0</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>107</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C161" s="5">
-        <v>0</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>107</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C162" s="5">
-        <v>0</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>153</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>11</v>
@@ -3683,41 +3770,35 @@
       <c r="C163" s="5">
         <v>-100</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C164" s="5">
-        <v>0</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>151</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>24</v>
@@ -3726,6 +3807,435 @@
         <v>100</v>
       </c>
       <c r="D166" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C168" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="5">
+        <v>100</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C178" s="5">
+        <v>100</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C179" s="5">
+        <v>0</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" s="5">
+        <v>100</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" s="5">
+        <v>100</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C182" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="5">
+        <v>100</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C188" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C189" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="5">
+        <v>0</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="5">
+        <v>0</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="5">
+        <v>0</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="5">
+        <v>-100</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="5">
+        <v>100</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3735,6 +4245,42 @@
     <sortCondition ref="B2:B166"/>
   </sortState>
   <conditionalFormatting sqref="A2:A18">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20 A22:A35">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:A37 A39:A52">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3746,7 +4292,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A22:A35">
+  <conditionalFormatting sqref="A38">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A54 A56:A69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3758,7 +4316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A55">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3770,7 +4328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 A39:A52">
+  <conditionalFormatting sqref="A70:A71 A73:A86">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3782,7 +4340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A72">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3794,19 +4352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54 A56:A69">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A89">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3818,19 +4364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71 A73:A86">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A106">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3842,7 +4376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
+  <conditionalFormatting sqref="A112">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3854,7 +4388,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A113:A128 A87:A88 A90:A105 A107:A111 A130:A145 A147:A162 A164:A166">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3866,7 +4412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
+  <conditionalFormatting sqref="A146">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3878,19 +4424,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A128 A87:A88 A90:A105 A107:A111 A130:A145 A147:A162 A164:A166">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
+  <conditionalFormatting sqref="A163">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3902,8 +4436,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A167:A177 A179:A199">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3914,7 +4448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163">
+  <conditionalFormatting sqref="A178">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3926,8 +4460,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A1048576 A1">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="A200:A1048576 A1">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3937,7 +4471,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3949,7 +4483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3972,7 +4506,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178F91F-3E72-488D-AA0C-F41098DB5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC98EA-AD4C-483B-84CB-2B32AE67A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="13530" yWindow="-16200" windowWidth="15375" windowHeight="15585" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidates" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="218">
   <si>
     <t>RW</t>
   </si>
@@ -622,6 +622,78 @@
   </si>
   <si>
     <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+  </si>
+  <si>
+    <t>Battaramulle</t>
+  </si>
+  <si>
+    <t>Seelarathana</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>PWSK</t>
+  </si>
+  <si>
+    <t>Bandaranayake</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>Piyadasa</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Siritunga</t>
+  </si>
+  <si>
+    <t>Jayasuriya</t>
+  </si>
+  <si>
+    <t>SJ.jpg</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Ajantha</t>
+  </si>
+  <si>
+    <t>de Zoysa</t>
+  </si>
+  <si>
+    <t>RJP</t>
+  </si>
+  <si>
+    <t>Siritunga_Jayasuriya</t>
+  </si>
+  <si>
+    <t>AZ.png</t>
+  </si>
+  <si>
+    <t>BS.png</t>
+  </si>
+  <si>
+    <t>PB.png</t>
+  </si>
+  <si>
+    <t>297.jpg</t>
   </si>
 </sst>
 </file>
@@ -809,8 +881,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:J12" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:J12" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}" name="Table2" displayName="Table2" ref="A1:J17" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:J17" xr:uid="{7A8F536E-AC06-4055-851D-50D91FE248C3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition ref="A1:A17"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6437F240-079A-42DB-BB9D-ED5CDE44AE5B}" name="id"/>
     <tableColumn id="2" xr3:uid="{EE4FEA58-8904-438E-B08C-31203DE9E210}" name="firstName"/>
@@ -846,7 +921,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D199" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D199" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D199">
-    <sortCondition ref="A1:A199"/>
+    <sortCondition ref="B1:B199"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
@@ -1175,17 +1250,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1294,25 +1367,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
@@ -1326,57 +1399,57 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5">
-        <v>3194</v>
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>111</v>
@@ -1390,31 +1463,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>297</v>
+      </c>
+      <c r="I7" t="s">
         <v>111</v>
-      </c>
-      <c r="I7" t="s">
-        <v>159</v>
       </c>
       <c r="J7" t="s">
         <v>111</v>
@@ -1422,95 +1495,95 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8">
-        <v>1244</v>
-      </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9">
-        <v>3135</v>
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c r="H10">
-        <v>3038</v>
+      <c r="H10" t="s">
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
         <v>111</v>
@@ -1518,65 +1591,225 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <v>1244</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>3135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15">
+        <v>3038</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="H12">
+      <c r="H17">
         <v>1521</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I17" t="s">
         <v>163</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J17" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1597,7 +1830,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,9 +2049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182:A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,21 +2090,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5">
         <v>-100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5">
         <v>-100</v>
@@ -1879,24 +2115,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5">
         <v>-100</v>
@@ -1904,10 +2137,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>-100</v>
@@ -1915,10 +2148,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5">
         <v>-100</v>
@@ -1926,10 +2159,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>-100</v>
@@ -1937,209 +2170,202 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5">
         <v>-100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5">
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5">
         <v>-100</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>108</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5">
-        <v>100</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>116</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5">
-        <f>-100</f>
-        <v>-100</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>117</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5">
-        <v>100</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>119</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>62</v>
@@ -2150,10 +2376,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5">
         <v>-100</v>
@@ -2161,10 +2387,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5">
         <v>-100</v>
@@ -2172,10 +2398,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C28" s="5">
         <v>-100</v>
@@ -2183,10 +2409,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5">
         <v>-100</v>
@@ -2194,10 +2420,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5">
         <v>-100</v>
@@ -2205,10 +2431,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5">
         <v>-100</v>
@@ -2216,10 +2442,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5">
         <v>-100</v>
@@ -2227,10 +2453,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5">
         <v>-100</v>
@@ -2238,54 +2464,63 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C38" s="5">
         <v>-100</v>
@@ -2293,10 +2528,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C39" s="5">
         <v>-100</v>
@@ -2307,7 +2542,7 @@
         <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40" s="5">
         <v>-100</v>
@@ -2315,38 +2550,32 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C41" s="5">
-        <v>100</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>185</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C42" s="5">
         <v>-100</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C43" s="5">
         <v>-100</v>
@@ -2354,38 +2583,32 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C44" s="5">
-        <v>100</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>192</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="5">
-        <v>100</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>193</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C46" s="5">
         <v>-100</v>
@@ -2393,10 +2616,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C47" s="5">
         <v>-100</v>
@@ -2404,7 +2627,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>29</v>
@@ -2415,10 +2638,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C49" s="5">
         <v>-100</v>
@@ -2426,10 +2649,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C50" s="5">
         <v>-100</v>
@@ -2437,65 +2660,77 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C51" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="5">
         <v>0</v>
-      </c>
-      <c r="C52" s="5">
-        <v>-100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C53" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C54" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C55" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C56" s="5">
         <v>-100</v>
@@ -2503,10 +2738,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5">
         <v>-100</v>
@@ -2514,10 +2749,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="5">
         <v>-100</v>
@@ -2528,7 +2763,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C59" s="5">
         <v>-100</v>
@@ -2536,7 +2771,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>63</v>
@@ -2547,21 +2782,24 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5">
         <v>-100</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5">
         <v>-100</v>
@@ -2569,24 +2807,21 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5">
-        <v>100</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>120</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C64" s="5">
         <v>-100</v>
@@ -2594,10 +2829,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5">
         <v>-100</v>
@@ -2605,10 +2840,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5">
         <v>-100</v>
@@ -2616,38 +2851,44 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5">
         <v>-100</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C68" s="5">
         <v>100</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>180</v>
+      <c r="D68" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,18 +2896,18 @@
         <v>171</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C70" s="5">
         <v>100</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>63</v>
@@ -2675,54 +2916,54 @@
         <v>100</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C72" s="5">
         <v>100</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C73" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C74" s="5">
-        <v>100</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>178</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C75" s="5">
         <v>-100</v>
@@ -2730,10 +2971,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C76" s="5">
         <v>-100</v>
@@ -2741,30 +2982,24 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C77" s="5">
-        <v>100</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>177</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C78" s="5">
-        <v>100</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>183</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2772,21 +3007,18 @@
         <v>100</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C79" s="5">
-        <v>100</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>121</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C80" s="5">
         <v>-100</v>
@@ -2794,10 +3026,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C81" s="5">
         <v>-100</v>
@@ -2805,10 +3037,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C82" s="5">
         <v>-100</v>
@@ -2816,7 +3048,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>44</v>
@@ -2827,10 +3059,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C84" s="5">
         <v>-100</v>
@@ -2838,10 +3070,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C85" s="5">
         <v>-100</v>
@@ -2849,10 +3081,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C86" s="5">
         <v>-100</v>
@@ -2860,68 +3092,74 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C87" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C88" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C89" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C90" s="5">
         <v>100</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C91" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C92" s="5">
         <v>-100</v>
@@ -2929,24 +3167,21 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C93" s="5">
         <v>-100</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C94" s="5">
         <v>-100</v>
@@ -2954,7 +3189,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>36</v>
@@ -2965,24 +3200,21 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C96" s="5">
-        <v>100</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>124</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C97" s="5">
         <v>-100</v>
@@ -2990,10 +3222,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C98" s="5">
         <v>-100</v>
@@ -3004,21 +3236,18 @@
         <v>88</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C99" s="5">
-        <v>100</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>125</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C100" s="5">
         <v>-100</v>
@@ -3026,10 +3255,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C101" s="5">
         <v>-100</v>
@@ -3037,10 +3266,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C102" s="5">
         <v>-100</v>
@@ -3048,10 +3277,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C103" s="5">
         <v>-100</v>
@@ -3059,10 +3288,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C104" s="5">
         <v>-100</v>
@@ -3070,10 +3299,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C105" s="5">
         <v>-100</v>
@@ -3081,57 +3310,63 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C106" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="5">
         <v>0</v>
-      </c>
-      <c r="C107" s="5">
-        <v>-100</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C108" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C109" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C110" s="5">
         <v>-100</v>
@@ -3139,10 +3374,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C111" s="5">
         <v>-100</v>
@@ -3150,24 +3385,21 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C112" s="5">
-        <v>100</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>189</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C113" s="5">
         <v>-100</v>
@@ -3175,10 +3407,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C114" s="5">
         <v>-100</v>
@@ -3186,10 +3418,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C115" s="5">
         <v>-100</v>
@@ -3197,21 +3429,24 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C116" s="5">
         <v>-100</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C117" s="5">
         <v>-100</v>
@@ -3219,138 +3454,147 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="5">
-        <v>100</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>186</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C119" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C120" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C121" s="5">
         <v>100</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C122" s="5">
         <v>100</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C123" s="5">
         <v>100</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C124" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C125" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C126" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C127" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C128" s="5">
         <v>-100</v>
@@ -3358,18 +3602,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C129" s="5">
         <v>-100</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D129" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>11</v>
@@ -3377,27 +3624,27 @@
       <c r="C130" s="5">
         <v>-100</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C131" s="5">
         <v>-100</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C132" s="5">
         <v>-100</v>
@@ -3405,10 +3652,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C133" s="5">
         <v>-100</v>
@@ -3416,157 +3663,160 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C134" s="5">
-        <v>100</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>129</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C135" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C136" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C137" s="5">
-        <v>100</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>130</v>
+        <v>-100</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C138" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C139" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C140" s="5">
         <v>-100</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C142" s="5">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C143" s="5">
         <v>100</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C144" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C145" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C146" s="5">
         <v>-100</v>
@@ -3574,10 +3824,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C147" s="5">
         <v>-100</v>
@@ -3585,10 +3835,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C148" s="5">
         <v>-100</v>
@@ -3596,10 +3846,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C149" s="5">
         <v>-100</v>
@@ -3607,10 +3857,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C150" s="5">
         <v>-100</v>
@@ -3618,24 +3868,21 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C151" s="5">
-        <v>100</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>135</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C152" s="5">
         <v>-100</v>
@@ -3643,7 +3890,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>33</v>
@@ -3654,10 +3901,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C154" s="5">
         <v>-100</v>
@@ -3665,30 +3912,24 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C155" s="5">
-        <v>100</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>136</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C156" s="5">
-        <v>100</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>137</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3696,7 +3937,7 @@
         <v>92</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C157" s="5">
         <v>-100</v>
@@ -3704,10 +3945,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C158" s="5">
         <v>-100</v>
@@ -3715,68 +3956,77 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C159" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C160" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C161" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="5">
         <v>0</v>
       </c>
-      <c r="C162" s="5">
-        <v>-100</v>
+      <c r="D162" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C163" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C164" s="5">
         <v>-100</v>
@@ -3784,38 +4034,32 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C165" s="5">
-        <v>100</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>137</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C166" s="5">
-        <v>100</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>137</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C167" s="5">
         <v>-100</v>
@@ -3823,10 +4067,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C168" s="5">
         <v>-100</v>
@@ -3834,10 +4078,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C169" s="5">
         <v>-100</v>
@@ -3845,10 +4089,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C170" s="5">
         <v>-100</v>
@@ -3856,10 +4100,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C171" s="5">
         <v>-100</v>
@@ -3870,7 +4114,7 @@
         <v>89</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C172" s="5">
         <v>-100</v>
@@ -3878,102 +4122,114 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C173" s="5">
         <v>-100</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C174" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C175" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C177" s="5">
         <v>100</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C178" s="5">
         <v>100</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C179" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C180" s="5">
         <v>100</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3981,99 +4237,88 @@
         <v>91</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C181" s="5">
         <v>100</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C182" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C183" s="5">
-        <v>0</v>
+        <f>-100</f>
+        <v>-100</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C184" s="5">
         <v>-100</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C185" s="5">
         <v>-100</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C186" s="5">
         <v>-100</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C187" s="5">
-        <v>100</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>146</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>24</v>
@@ -4081,148 +4326,136 @@
       <c r="C188" s="5">
         <v>-100</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C189" s="5">
         <v>-100</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C190" s="5">
-        <v>0</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C191" s="5">
-        <v>0</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>150</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C192" s="5">
         <v>-100</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C193" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C194" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C195" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C196" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C197" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C198" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4526,55 +4759,55 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Candidates!B4&amp;" "&amp;Candidates!C4</f>
-        <v>Janaka Ratnayake</v>
+        <v>Ajantha de Zoysa</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Candidates!B5&amp;" "&amp;Candidates!C5</f>
-        <v>Mathiaparanan Abraham Sumanthiran</v>
+        <v>Battaramulle Seelarathana</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Candidates!B6&amp;" "&amp;Candidates!C6</f>
-        <v>Nuwan Bopage</v>
+        <v>Janaka Ratnayake</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Candidates!B7&amp;" "&amp;Candidates!C7</f>
-        <v>Oshala Herath</v>
+        <v>KK Piyadasa</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Candidates!B8&amp;" "&amp;Candidates!C8</f>
-        <v>Ranil Wickramasinghe</v>
+        <v>Mathiaparanan Abraham Sumanthiran</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Candidates!B9&amp;" "&amp;Candidates!C9</f>
-        <v>Sarath Fonseka</v>
+        <v>Nuwan Bopage</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Candidates!B10&amp;" "&amp;Candidates!C10</f>
-        <v>Sarath Keerthirathna</v>
+        <v>Oshala Herath</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Candidates!B11&amp;" "&amp;Candidates!C11</f>
-        <v>Sajith Premadasa</v>
+        <v>PWSK Bandaranayake</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Candidates!B12&amp;" "&amp;Candidates!C12</f>
-        <v>Wijeyadasa Rajapakshe</v>
+        <v>Ranil Wickramasinghe</v>
       </c>
     </row>
   </sheetData>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC98EA-AD4C-483B-84CB-2B32AE67A80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B86CBD-E162-4DC0-93ED-F9D308273C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="-16200" windowWidth="15375" windowHeight="15585" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidates" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="222">
   <si>
     <t>RW</t>
   </si>
@@ -684,9 +684,6 @@
     <t>Siritunga_Jayasuriya</t>
   </si>
   <si>
-    <t>AZ.png</t>
-  </si>
-  <si>
     <t>BS.png</t>
   </si>
   <si>
@@ -694,6 +691,21 @@
   </si>
   <si>
     <t>297.jpg</t>
+  </si>
+  <si>
+    <t>284.jpg</t>
+  </si>
+  <si>
+    <t>ajantha-zoysa-42a2b2101</t>
+  </si>
+  <si>
+    <t>k-k-piyadasa</t>
+  </si>
+  <si>
+    <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
+  </si>
+  <si>
+    <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
   </si>
 </sst>
 </file>
@@ -918,10 +930,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D199" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D199" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D199">
-    <sortCondition ref="B1:B199"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D74" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D74" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+    <sortCondition ref="D1:D74"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
@@ -1252,8 +1264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7EF6E1-0621-4FD2-8D1B-F60C90A9E974}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,19 +1392,19 @@
         <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
         <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" t="s">
-        <v>111</v>
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
         <v>111</v>
@@ -1411,7 +1424,7 @@
         <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
         <v>111</v>
@@ -1475,7 +1488,7 @@
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -1490,7 +1503,7 @@
         <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1603,7 +1616,7 @@
         <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
         <v>111</v>
@@ -1615,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
         <v>111</v>
@@ -1705,7 +1718,7 @@
         <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="H14" t="s">
         <v>111</v>
@@ -2047,11 +2060,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182:A199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2079,13 +2092,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
+        <f>-100</f>
         <v>-100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,18 +2110,18 @@
         <v>90</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>-100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>60</v>
@@ -2112,186 +2129,204 @@
       <c r="C4" s="5">
         <v>-100</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5">
         <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5">
         <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,145 +2345,184 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5">
         <v>-100</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C27" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C32" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,129 +2530,153 @@
         <v>89</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C33" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C37" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C39" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2586,21 +2684,27 @@
         <v>88</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C44" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2608,79 +2712,97 @@
         <v>175</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C47" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C48" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C52" s="5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,7 +2810,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5">
         <v>0</v>
@@ -2699,1783 +2821,302 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C55" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C57" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C58" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C59" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C60" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C61" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C62" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C63" s="5">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C64" s="5">
         <v>-100</v>
       </c>
+      <c r="D64" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C66" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C67" s="5">
         <v>-100</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>149</v>
+      <c r="D67" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C68" s="5">
         <v>100</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>105</v>
+      <c r="D68" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C69" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C70" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C71" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C72" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C73" s="5">
         <v>100</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C74" s="5">
         <v>-100</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="5">
-        <v>100</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C95" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C106" s="5">
-        <v>0</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="5">
-        <v>0</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="5">
-        <v>0</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="5">
-        <v>0</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="5">
-        <v>100</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="5">
-        <v>100</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="5">
-        <v>100</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="5">
-        <v>100</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C125" s="5">
-        <v>100</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="5">
-        <v>100</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="5">
-        <v>100</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="5">
-        <v>100</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="5">
-        <v>100</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="5">
-        <v>100</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="5">
-        <v>0</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="5">
-        <v>0</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="5">
-        <v>100</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="5">
-        <v>100</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="5">
-        <v>100</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="5">
-        <v>100</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="5">
-        <v>100</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="5">
-        <v>100</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="5">
-        <v>100</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C180" s="5">
-        <v>100</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="5">
-        <v>100</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" s="5">
-        <f>-100</f>
-        <v>-100</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C186" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C189" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C190" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C192" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" s="5">
-        <v>100</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C194" s="5">
-        <v>100</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="5">
-        <v>100</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" s="5">
-        <v>100</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C197" s="5">
-        <v>100</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="5">
-        <v>100</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" s="5">
-        <v>100</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D166">
-    <sortCondition ref="A2:A166"/>
-    <sortCondition ref="B2:B166"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
+    <sortCondition ref="A2:A74"/>
+    <sortCondition ref="B2:B74"/>
   </sortState>
   <conditionalFormatting sqref="A2:A18">
     <cfRule type="colorScale" priority="18">
@@ -4561,18 +3202,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71 A73:A86">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A72">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -4585,115 +3214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113:A128 A87:A88 A90:A105 A107:A111 A130:A145 A147:A162 A164:A166">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167:A177 A179:A199">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200:A1048576 A1">
+  <conditionalFormatting sqref="A75:A1048576 A1">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -4727,6 +3248,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A70:A71 A73:A74">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B86CBD-E162-4DC0-93ED-F9D308273C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F70C8B-AD1C-43AF-BD7B-7BD33240854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="9600" yWindow="-14730" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidates" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="216">
   <si>
     <t>RW</t>
   </si>
@@ -233,9 +233,6 @@
     <t>MS</t>
   </si>
   <si>
-    <t>Economic Experience at the National Level</t>
-  </si>
-  <si>
     <t>Has Military Affiliations</t>
   </si>
   <si>
@@ -245,24 +242,6 @@
     <t>Is a Party Leader</t>
   </si>
   <si>
-    <t>Member or Former-Member of the SLPP</t>
-  </si>
-  <si>
-    <t>Under 65 years old (Born after 1959)</t>
-  </si>
-  <si>
-    <t>Will support abolishing the Executive Presidency while in seat</t>
-  </si>
-  <si>
-    <t>Won a Electoral District Seat in the 2020 General Election</t>
-  </si>
-  <si>
-    <t>Voted for the 20th Amendment</t>
-  </si>
-  <si>
-    <t>Associated with Communist Ideologies</t>
-  </si>
-  <si>
     <t>Has Ongoing Criminal Case(s)</t>
   </si>
   <si>
@@ -347,12 +326,6 @@
     <t>Voted20A</t>
   </si>
   <si>
-    <t>Participated in or Associated with 1987-1989 JVP insurrection</t>
-  </si>
-  <si>
-    <t>Declared Assets in Public in at least one of the last 5 years</t>
-  </si>
-  <si>
     <t>https://www.tisrilanka.org/mpassets/</t>
   </si>
   <si>
@@ -362,12 +335,6 @@
     <t>refs</t>
   </si>
   <si>
-    <t>Not MP</t>
-  </si>
-  <si>
-    <t>Not currently MP</t>
-  </si>
-  <si>
     <t>https://www.parliament.lk</t>
   </si>
   <si>
@@ -395,9 +362,6 @@
     <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
   </si>
   <si>
-    <t>Over 70% Attendance in the Ninth Parliament</t>
-  </si>
-  <si>
     <t>Anura Kumara Dissanayake, the leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
   </si>
   <si>
@@ -425,10 +389,6 @@
     <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarath Fonseka is a former army commander and has a military background. He does not have paramilitary affiliations, but his career is associated with formal military service. [https://en.wikipedia.org/wiki/Sarath_Fonseka]
- </t>
-  </si>
-  <si>
     <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
   </si>
   <si>
@@ -444,9 +404,6 @@
     <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
   </si>
   <si>
-    <t>Appointed to Cabinet by a Rajapaksa President</t>
-  </si>
-  <si>
     <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
   </si>
   <si>
@@ -465,9 +422,6 @@
     <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
   </si>
   <si>
-    <t>No data on birth date</t>
-  </si>
-  <si>
     <t>Born 1964 [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
   </si>
   <si>
@@ -492,9 +446,6 @@
     <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
   </si>
   <si>
-    <t>No MP</t>
-  </si>
-  <si>
     <t>Not MP at the time</t>
   </si>
   <si>
@@ -564,9 +515,6 @@
     <t>Corruption</t>
   </si>
   <si>
-    <t>Has No History of Corruption Charges</t>
-  </si>
-  <si>
     <t>Minister</t>
   </si>
   <si>
@@ -594,9 +542,6 @@
     <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
   </si>
   <si>
-    <t>While he has faced legal battles and imprisonment, these were related to military and political disputes rather than corruption charges. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-  </si>
-  <si>
     <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
   </si>
   <si>
@@ -706,6 +651,42 @@
   </si>
   <si>
     <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+  </si>
+  <si>
+    <t>Has History of Corruption Charges</t>
+  </si>
+  <si>
+    <t>Has Declared Assets in Public in at least one of the last 5 years</t>
+  </si>
+  <si>
+    <t>Has Over 70% Attendance in the Ninth Parliament</t>
+  </si>
+  <si>
+    <t>Is Associated with Communist Ideologies</t>
+  </si>
+  <si>
+    <t>Has Economic Experience at the National Level</t>
+  </si>
+  <si>
+    <t>Has Participated in or Is Associated with 1987-1989 JVP insurrection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will support abolishing the Executive Presidency </t>
+  </si>
+  <si>
+    <t>Has been Appointed to Cabinet by a Rajapaksa President</t>
+  </si>
+  <si>
+    <t>Has Won a Electoral District Seat in the 2020 General Election</t>
+  </si>
+  <si>
+    <t>Is Member or Former-Member of the SLPP</t>
+  </si>
+  <si>
+    <t>Is Under 65 years old (Born after 1959)</t>
+  </si>
+  <si>
+    <t>Has Voted in Favour of the 20th Amendment</t>
   </si>
 </sst>
 </file>
@@ -763,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -778,9 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,10 +908,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D74" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D74" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
-    <sortCondition ref="D1:D74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}" name="Table3" displayName="Table3" ref="A1:D61" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D61" xr:uid="{D99C6C52-B134-4C66-AAD5-56E7BA36B9CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
+    <sortCondition ref="A1:A61"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
@@ -1299,19 +1277,19 @@
         <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1334,16 +1312,16 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1363,83 +1341,83 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>284</v>
       </c>
       <c r="I4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" t="s">
-        <v>214</v>
-      </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1453,57 +1431,57 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1526,16 +1504,16 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1555,19 +1533,19 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1590,48 +1568,48 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" t="s">
-        <v>215</v>
-      </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1645,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1654,16 +1632,16 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H12">
         <v>1244</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1677,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -1686,48 +1664,48 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H13">
         <v>3135</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,25 +1719,25 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <v>3038</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1782,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H16">
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1805,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1814,16 +1792,16 @@
         <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H17">
         <v>1521</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1842,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,169 +1839,169 @@
         <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2060,11 +2038,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2078,7 +2056,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>58</v>
@@ -2087,125 +2065,124 @@
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5">
-        <f>-100</f>
-        <v>-100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>-100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>-100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5">
         <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
@@ -2214,96 +2191,96 @@
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
         <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>63</v>
@@ -2312,54 +2289,54 @@
         <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5">
         <v>100</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>60</v>
@@ -2368,96 +2345,96 @@
         <v>100</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5">
         <v>100</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5">
         <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C25" s="5">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5">
         <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5">
         <v>100</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>60</v>
@@ -2466,54 +2443,54 @@
         <v>100</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C29" s="5">
         <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5">
         <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5">
         <v>100</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>0</v>
@@ -2522,68 +2499,68 @@
         <v>100</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5">
         <v>100</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5">
         <v>100</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5">
         <v>100</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>5</v>
@@ -2592,54 +2569,54 @@
         <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C38" s="5">
         <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C39" s="5">
         <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C40" s="5">
         <v>100</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>105</v>
+      <c r="D40" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>60</v>
@@ -2648,12 +2625,12 @@
         <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>5</v>
@@ -2662,29 +2639,29 @@
         <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5">
         <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C44" s="5">
         <v>100</v>
@@ -2695,147 +2672,147 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5">
         <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C46" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C48" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C49" s="5">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C50" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C52" s="5">
         <v>100</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C54" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>33</v>
@@ -2844,282 +2821,100 @@
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C57" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C58" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C59" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C60" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C61" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="5">
-        <v>100</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="5">
-        <v>100</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="5">
-        <v>100</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="5">
-        <v>100</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="5">
-        <v>-100</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D74">
-    <sortCondition ref="A2:A74"/>
-    <sortCondition ref="B2:B74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="B2:B61"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A18">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="A2:A12">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3130,7 +2925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20 A22:A35">
+  <conditionalFormatting sqref="A13:A14 A16:A29">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3142,7 +2937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A15">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3154,8 +2949,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A37 A39:A52">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="A30:A31 A33:A45">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3166,7 +2961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
+  <conditionalFormatting sqref="A32">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3178,8 +2973,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54 A56:A69">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="A46:A47 A49:A56">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3190,7 +2985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A48">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3202,7 +2997,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A57:A58 A60:A61">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3214,7 +3021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:A1048576 A1">
+  <conditionalFormatting sqref="A62:A1048576 A1">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -3248,18 +3055,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:A71 A73:A74">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Not.Dropbox\CODING\js_react\candidates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F70C8B-AD1C-43AF-BD7B-7BD33240854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F794B1-A2C4-4E50-9445-0FA4FE8306CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-14730" windowWidth="19080" windowHeight="11670" activeTab="1" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{838D9952-C9A6-4E4F-9A32-75481D950E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Candidates" sheetId="2" r:id="rId1"/>
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -760,6 +760,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -767,7 +773,7 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -916,8 +922,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AA629746-BA77-466A-84A9-A8EC13F6AA8A}" name="criterionID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BF601362-03B9-49DD-ABC3-816BC9D65200}" name="candidateID" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="refs" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{6F5E9A9F-B990-44AD-ABBB-2F66AE282C8A}" name="score" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{92E01040-38D5-4830-A7DC-8A92769EC450}" name="refs" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1820,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07C00C-98A4-4972-AB87-C91DBC1A726F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2040,16 +2046,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DDFF1C-F280-4A08-8DD4-E6EEFF8DFCB9}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="121.44140625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
@@ -2061,7 +2067,7 @@
       <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2075,7 +2081,7 @@
       <c r="B2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>100</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2089,7 +2095,7 @@
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>-100</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2103,7 +2109,7 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>-100</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2117,7 +2123,7 @@
       <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>-100</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2131,7 +2137,7 @@
       <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2145,7 +2151,7 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2159,7 +2165,7 @@
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2173,7 +2179,7 @@
       <c r="B9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2187,7 +2193,7 @@
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2201,7 +2207,7 @@
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2215,7 +2221,7 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>100</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2229,7 +2235,7 @@
       <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>100</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2243,7 +2249,7 @@
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2257,7 +2263,7 @@
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>100</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2271,7 +2277,7 @@
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>100</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2285,7 +2291,7 @@
       <c r="B17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2299,7 +2305,7 @@
       <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>100</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2313,7 +2319,7 @@
       <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2327,7 +2333,7 @@
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>100</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2341,7 +2347,7 @@
       <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>100</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2355,7 +2361,7 @@
       <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>-100</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2369,7 +2375,7 @@
       <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>100</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2383,7 +2389,7 @@
       <c r="B24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2397,7 +2403,7 @@
       <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>100</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2411,7 +2417,7 @@
       <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2425,7 +2431,7 @@
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>100</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2439,7 +2445,7 @@
       <c r="B28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>100</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2453,7 +2459,7 @@
       <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2467,7 +2473,7 @@
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2481,7 +2487,7 @@
       <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>100</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2495,7 +2501,7 @@
       <c r="B32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>100</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2509,7 +2515,7 @@
       <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>100</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2523,7 +2529,7 @@
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>100</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2537,7 +2543,7 @@
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="8">
         <v>100</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2551,7 +2557,7 @@
       <c r="B36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>-100</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2565,7 +2571,7 @@
       <c r="B37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2579,7 +2585,7 @@
       <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2593,7 +2599,7 @@
       <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="8">
         <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2607,7 +2613,7 @@
       <c r="B40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="8">
         <v>100</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2621,7 +2627,7 @@
       <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="8">
         <v>100</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2635,7 +2641,7 @@
       <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="8">
         <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2649,7 +2655,7 @@
       <c r="B43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="8">
         <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2663,7 +2669,7 @@
       <c r="B44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="8">
         <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -2677,7 +2683,7 @@
       <c r="B45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="8">
         <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -2691,7 +2697,7 @@
       <c r="B46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="8">
         <v>-100</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -2705,7 +2711,7 @@
       <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="8">
         <v>-100</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -2719,7 +2725,7 @@
       <c r="B48" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="8">
         <v>-100</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2733,7 +2739,7 @@
       <c r="B49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="8">
         <v>-100</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -2747,7 +2753,7 @@
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="8">
         <v>100</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2761,7 +2767,7 @@
       <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="8">
         <v>100</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -2775,7 +2781,7 @@
       <c r="B52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="8">
         <v>100</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2789,7 +2795,7 @@
       <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="8">
         <v>100</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -2803,7 +2809,7 @@
       <c r="B54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="8">
         <v>100</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -2817,7 +2823,7 @@
       <c r="B55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="8">
         <v>0</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2831,7 +2837,7 @@
       <c r="B56" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="8">
         <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2845,7 +2851,7 @@
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="8">
         <v>-100</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -2859,7 +2865,7 @@
       <c r="B58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="8">
         <v>-100</v>
       </c>
       <c r="D58" s="5" t="s">
@@ -2873,7 +2879,7 @@
       <c r="B59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="8">
         <v>-100</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -2887,7 +2893,7 @@
       <c r="B60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="8">
         <v>-100</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2901,7 +2907,7 @@
       <c r="B61" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="8">
         <v>100</v>
       </c>
       <c r="D61" s="5" t="s">

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -57,7 +57,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,23 +65,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -100,7 +89,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,10 +251,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J17" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:J17"/>
-  <sortState ref="A2:J17">
-    <sortCondition ref="A1:A17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J16" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:J16"/>
+  <sortState ref="A2:J16">
+    <sortCondition ref="A1:A16"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="id"/>
@@ -300,10 +288,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D61" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D61"/>
-  <sortState ref="A2:D61">
-    <sortCondition ref="A1:A61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D57" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D57"/>
+  <sortState ref="A2:D57">
+    <sortCondition ref="B1:B57"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="criterionID" dataDxfId="3"/>
@@ -636,11 +624,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1017,97 +1005,99 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mathiaparanan Abraham</t>
+          <t>Nuwan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sumanthiran</t>
+          <t>Bopage</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITAK</t>
+          <t>PSA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3194.jpg</t>
+          <t>NB.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MASumanthiran</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>M._A._Sumanthiran</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>m-sumanthiran-88379165</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>m-a-sumanthiran</t>
+          <t>null</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nuwan</t>
+          <t>Oshala</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bopage</t>
+          <t>Herath</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>NIF</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NB.png</t>
+          <t>OH.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>OshalaHerath</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>oshalaherath</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1119,32 +1109,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oshala</t>
+          <t>PWSK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Herath</t>
+          <t>Bandaranayake</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NIF</t>
+          <t>JSP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OH.png</t>
+          <t>PB.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>OshalaHerath</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1159,7 +1149,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>oshalaherath</t>
+          <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1171,69 +1161,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PWSK</t>
+          <t>Ranil</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bandaranayake</t>
+          <t>Wickramasinghe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JSP</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PB.png</t>
+          <t>1244.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>RW_UNP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ranil_Wickremesinghe</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1244</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>ranil-wickremesinghe</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ranil</t>
+          <t>Sarath</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wickramasinghe</t>
+          <t>Fonseka</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1243,47 +1231,47 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1244.jpg</t>
+          <t>3135.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RW_UNP</t>
+          <t>GeneralFonseka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ranil_Wickremesinghe</t>
+          <t>Sarath_Fonseka</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1244</v>
+        <v>3135</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>field-marshal-sarath-fonseka-465815179</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ranil-wickremesinghe</t>
+          <t>sarath-fonseka</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sarath</t>
+          <t>Siritunga</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonseka</t>
+          <t>Jayasuriya</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1293,47 +1281,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3135.jpg</t>
+          <t>SJ.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GeneralFonseka</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarath_Fonseka</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3135</v>
+          <t>Siritunga_Jayasuriya</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>field-marshal-sarath-fonseka-465815179</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>sarath-fonseka</t>
+          <t>null</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Siritunga</t>
+          <t>Sarath</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Jayasuriya</t>
+          <t>Keerthirathna</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1343,7 +1333,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SJ.jpg</t>
+          <t>SK.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1353,13 +1343,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Siritunga_Jayasuriya</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
           <t>null</t>
         </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3038</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1375,148 +1363,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sarath</t>
+          <t>Sajith</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Keerthirathna</t>
+          <t>Premadasa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>SJB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SK.jpg</t>
+          <t>140.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>SajithPremadasa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Sajith_Premadasa</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3038</v>
+        <v>140</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>sajithpremadasa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>sajith-premadasa</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sajith</t>
+          <t>Wijeyadasa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Premadasa</t>
+          <t>Rajapakshe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SJB</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>140.jpg</t>
+          <t>1521.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SajithPremadasa</t>
+          <t>WijeRajapakshe</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sajith_Premadasa</t>
+          <t>Wijeyadasa_Rajapakshe</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>140</v>
+        <v>1521</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sajithpremadasa</t>
+          <t>wijeyadasa-rajapakshe</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>sajith-premadasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Wijeyadasa</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Rajapakshe</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Independent</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1521.jpg</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>WijeRajapakshe</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Wijeyadasa_Rajapakshe</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1521</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>wijeyadasa-rajapakshe</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t>wijeyadasa-rajapakshe</t>
         </is>
@@ -1848,11 +1786,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I257" sqref="I257"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1861,8 +1799,8 @@
     <col width="13.33203125" customWidth="1" style="5" min="2" max="2"/>
     <col width="7.88671875" customWidth="1" style="7" min="3" max="3"/>
     <col width="121.44140625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="5" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="5" min="6" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="8.88671875" customWidth="1" style="5" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1985,16 +1923,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Latest declaration in 2023/24 [https://www.tisrilanka.org/mpassets/]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="9">
@@ -2005,7 +1938,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2020,7 +1953,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2035,7 +1968,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2050,7 +1983,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2065,7 +1998,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2080,7 +2013,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2095,7 +2028,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2110,7 +2043,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2120,16 +2053,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>-100</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2140,15 +2078,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
+          <t>Not Currently MP</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2098,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2180,7 +2118,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2200,7 +2138,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2220,7 +2158,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2240,7 +2178,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2260,15 +2198,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>276/383 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/3194]</t>
+          <t>Not Currently MP</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2218,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2300,15 +2238,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Not Currently MP</t>
+          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
         </is>
       </c>
     </row>
@@ -2320,15 +2258,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Not Currently MP</t>
+          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
         </is>
       </c>
     </row>
@@ -2340,15 +2278,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
+          <t>Not Currently MP</t>
         </is>
       </c>
     </row>
@@ -2360,15 +2298,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
+          <t>Not Currently MP</t>
         </is>
       </c>
     </row>
@@ -2380,15 +2318,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Not Currently MP</t>
+          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
         </is>
       </c>
     </row>
@@ -2400,27 +2338,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Not Currently MP</t>
+          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Communist</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2428,28 +2366,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
+          <t>Anura Kumara Dissanayake, the leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Communist</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>-100</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
-        </is>
       </c>
     </row>
     <row r="34">
@@ -2460,16 +2393,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Anura Kumara Dissanayake, the leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="35">
@@ -2480,7 +2408,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2495,7 +2423,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2510,7 +2438,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2525,7 +2453,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2540,7 +2468,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2555,7 +2483,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2570,7 +2498,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2585,7 +2513,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2600,7 +2528,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2615,7 +2543,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2630,7 +2558,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2645,7 +2573,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2655,12 +2583,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2670,12 +2598,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2685,12 +2613,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2705,7 +2633,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2720,7 +2648,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2735,7 +2663,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2750,7 +2678,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2765,7 +2693,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2780,7 +2708,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2795,11 +2723,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2810,7 +2743,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2825,7 +2758,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2840,7 +2773,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2855,7 +2788,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2863,7 +2796,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
+          <t>Leader of the opposition, has faced allegations and scrutiny, although not all allegations have led to formal charges. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
         </is>
       </c>
     </row>
@@ -2875,22 +2808,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2900,12 +2838,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2915,41 +2853,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Leader of the opposition, has faced allegations and scrutiny, although not all allegations have led to formal charges. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="66">
@@ -2960,7 +2888,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2975,7 +2903,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2990,7 +2918,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3005,7 +2933,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3020,7 +2948,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3035,7 +2963,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3050,7 +2978,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3065,7 +2993,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3080,7 +3008,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3095,7 +3023,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3110,7 +3038,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3125,7 +3053,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3135,12 +3063,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3150,12 +3078,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3165,12 +3093,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3180,12 +3108,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3200,7 +3128,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3215,7 +3143,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3230,7 +3158,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3245,7 +3173,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3260,7 +3188,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3275,7 +3203,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3290,11 +3218,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3305,7 +3238,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3320,7 +3253,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3335,7 +3268,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3350,16 +3283,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="93">
@@ -3370,7 +3298,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3380,61 +3308,66 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3445,7 +3378,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3453,7 +3386,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3398,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3480,11 +3413,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>BSc in Physics from the University of Madras, Attorney at Law [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3495,11 +3433,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -3510,16 +3453,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>100</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3530,11 +3468,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -3545,7 +3488,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3553,7 +3496,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>BSc in Physics from the University of Madras, Attorney at Law [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
@@ -3565,16 +3508,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>100</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="106">
@@ -3585,7 +3523,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3600,16 +3538,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>100</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3620,7 +3553,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3628,7 +3561,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
         </is>
       </c>
     </row>
@@ -3640,81 +3573,81 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>100</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>100</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="114">
@@ -3725,16 +3658,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>100</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="115">
@@ -3745,7 +3673,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3760,7 +3688,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3775,7 +3703,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3790,7 +3718,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3805,7 +3733,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3820,7 +3748,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3835,7 +3763,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3850,7 +3778,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3865,7 +3793,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3880,7 +3808,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3895,7 +3823,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3905,27 +3833,32 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3935,12 +3868,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3950,12 +3883,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3970,16 +3903,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>100</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="131">
@@ -3990,7 +3918,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -4005,11 +3933,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>-100</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Former leader of ITAK [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -4020,7 +3953,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4035,7 +3968,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4050,7 +3983,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4065,15 +3998,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Former leader of ITAK [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4018,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4100,7 +4033,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4115,7 +4048,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4130,7 +4063,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -4138,7 +4071,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
+          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4083,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4160,12 +4093,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4175,12 +4108,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4190,32 +4123,27 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>100</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4230,7 +4158,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4245,7 +4173,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4260,7 +4188,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4275,7 +4203,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4290,7 +4218,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -4305,7 +4233,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4320,7 +4248,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -4335,11 +4263,16 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -4350,7 +4283,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -4365,7 +4298,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -4380,7 +4313,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -4395,42 +4328,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>100</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -4440,12 +4373,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4455,12 +4388,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4475,16 +4408,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>100</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="163">
@@ -4495,7 +4423,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4510,7 +4438,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -4525,7 +4453,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -4540,7 +4468,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -4555,7 +4483,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -4570,11 +4498,16 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -4585,11 +4518,16 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -4600,7 +4538,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4615,11 +4553,16 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -4630,7 +4573,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4638,7 +4581,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4593,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4658,83 +4601,73 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>100</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>100</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>100</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="178">
@@ -4745,16 +4678,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>100</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="179">
@@ -4765,7 +4693,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4780,7 +4708,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4795,7 +4723,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4810,7 +4738,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4825,7 +4753,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4840,7 +4768,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4855,7 +4783,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4870,7 +4798,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4885,7 +4813,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4900,7 +4828,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4915,7 +4843,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4925,61 +4853,66 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4990,16 +4923,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>100</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -5010,7 +4938,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -5025,11 +4953,16 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>He has expressed support for abolishing the executive presidency, advocating for a parliamentary system that ensures greater checks and balances [https://www.colombotelegraph.com/index.php/electing-a-new-parliament-ending-the-old-presidency]</t>
+        </is>
       </c>
     </row>
     <row r="197">
@@ -5040,7 +4973,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -5055,7 +4988,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -5070,7 +5003,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -5085,15 +5018,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>He has expressed support for abolishing the executive presidency, advocating for a parliamentary system that ensures greater checks and balances [https://www.colombotelegraph.com/index.php/electing-a-new-parliament-ending-the-old-presidency]</t>
+          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
         </is>
       </c>
     </row>
@@ -5105,11 +5038,16 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -5120,7 +5058,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -5135,7 +5073,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -5150,15 +5088,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
+          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
         </is>
       </c>
     </row>
@@ -5170,77 +5108,67 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>100</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>100</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -5255,7 +5183,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -5270,7 +5198,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -5285,7 +5213,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -5300,7 +5228,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -5315,7 +5243,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -5330,7 +5258,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5345,11 +5273,16 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -5360,7 +5293,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5375,7 +5308,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5390,7 +5323,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -5405,16 +5338,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>100</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="221">
@@ -5425,22 +5353,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5450,12 +5383,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5465,12 +5398,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5480,21 +5413,16 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>100</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="226">
@@ -5505,7 +5433,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5520,7 +5448,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5535,7 +5463,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5550,7 +5478,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5565,7 +5493,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5580,7 +5508,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5595,7 +5523,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5610,7 +5538,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5625,7 +5553,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5640,7 +5568,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5655,7 +5583,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5670,37 +5598,47 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5710,12 +5648,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5725,21 +5663,16 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>100</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="242">
@@ -5750,16 +5683,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>100</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="243">
@@ -5770,7 +5698,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -5785,11 +5713,16 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Jaffna District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -5800,7 +5733,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5815,7 +5748,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -5830,7 +5763,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -5845,16 +5778,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>100</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Jaffna District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="249">
@@ -5865,7 +5793,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -5880,7 +5808,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -5895,7 +5823,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5910,11 +5838,16 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -5925,81 +5858,81 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>100</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>100</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -6010,7 +5943,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -6018,7 +5951,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
         </is>
       </c>
     </row>
@@ -6030,7 +5963,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -6045,11 +5978,16 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Born 1964 [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+        </is>
       </c>
     </row>
     <row r="261">
@@ -6060,11 +5998,16 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -6075,16 +6018,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>100</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -6095,7 +6033,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -6110,15 +6048,15 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
@@ -6130,15 +6068,15 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6088,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -6165,11 +6103,16 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
+        </is>
       </c>
     </row>
     <row r="268">
@@ -6180,15 +6123,15 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6143,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -6208,82 +6151,87 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
@@ -6295,15 +6243,15 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6263,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -6335,15 +6283,15 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6303,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -6375,7 +6323,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -6395,7 +6343,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -6415,15 +6363,15 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
@@ -6435,15 +6383,15 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
       </c>
     </row>
@@ -6455,7 +6403,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -6475,7 +6423,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -6495,15 +6443,15 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
       </c>
     </row>
@@ -6515,93 +6463,13 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D285" t="inlineStr">
-        <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>SJ</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>0</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>0</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>100</v>
-      </c>
-      <c r="D289" t="inlineStr">
         <is>
           <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
@@ -6610,18 +6478,6 @@
   </sheetData>
   <conditionalFormatting sqref="A2:A12">
     <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A14 A16:A29">
-    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6644,7 +6500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A31 A33:A45">
+  <conditionalFormatting sqref="A26:A27 A29:A41">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -6656,7 +6512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A28">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6668,7 +6524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:A47 A49:A56">
+  <conditionalFormatting sqref="A42:A43 A45:A52">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -6680,7 +6536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A44">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6692,7 +6548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A58 A60:A61">
+  <conditionalFormatting sqref="A53:A54 A56:A57">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -6704,7 +6560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A55">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6716,7 +6572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A62:A1048576">
+  <conditionalFormatting sqref="A1 A58:A1048576">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -6750,6 +6606,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A14 A16:A25">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -6809,31 +6677,31 @@
     </row>
     <row r="7">
       <c r="A7">
+        <f>Candidates!#REF!&amp;" "&amp;Candidates!#REF!</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <f>Candidates!B8&amp;" "&amp;Candidates!C8</f>
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
+    <row r="9">
+      <c r="A9">
         <f>Candidates!B9&amp;" "&amp;Candidates!C9</f>
         <v/>
       </c>
     </row>
-    <row r="9">
-      <c r="A9">
+    <row r="10">
+      <c r="A10">
         <f>Candidates!B10&amp;" "&amp;Candidates!C10</f>
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="A10">
-        <f>Candidates!B11&amp;" "&amp;Candidates!C11</f>
-        <v/>
-      </c>
-    </row>
     <row r="11">
       <c r="A11">
-        <f>Candidates!B12&amp;" "&amp;Candidates!C12</f>
+        <f>Candidates!B11&amp;" "&amp;Candidates!C11</f>
         <v/>
       </c>
     </row>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -30,16 +30,17 @@
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="0"/>
+      <color theme="10"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="10"/>
+      <b val="1"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,23 +69,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
@@ -94,90 +103,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -248,59 +173,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J16" headerRowCount="1" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:J16"/>
-  <sortState ref="A2:J16">
-    <sortCondition ref="A1:A16"/>
-  </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="firstName"/>
-    <tableColumn id="3" name="lastName"/>
-    <tableColumn id="4" name="party"/>
-    <tableColumn id="5" name="imgFile"/>
-    <tableColumn id="6" name="xHandle"/>
-    <tableColumn id="7" name="wikipediaPage"/>
-    <tableColumn id="8" name="parliamentMemberNum"/>
-    <tableColumn id="9" name="linkedInID"/>
-    <tableColumn id="10" name="manthriLKID"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:C19" headerRowCount="1" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:C19"/>
-  <sortState ref="A2:C19">
-    <sortCondition ref="A1:A19"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id" dataDxfId="6"/>
-    <tableColumn id="2" name="criterion"/>
-    <tableColumn id="3" name="refs"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D57" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D57"/>
-  <sortState ref="A2:D57">
-    <sortCondition ref="B1:B57"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="criterionID" dataDxfId="3"/>
-    <tableColumn id="2" name="candidateID" dataDxfId="2"/>
-    <tableColumn id="3" name="score" dataDxfId="1"/>
-    <tableColumn id="4" name="refs" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,69 +500,71 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="topRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="17.33203125" customWidth="1" min="2" max="2"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.21875" customWidth="1" min="5" max="5"/>
-    <col width="16.21875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="26.109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="35.77734375" customWidth="1" min="9" max="9"/>
-    <col width="18.33203125" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" style="3" min="1" max="1"/>
+    <col width="17.33203125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="9.21875" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16.21875" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
+    <col width="26.109375" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" style="3" min="8" max="8"/>
+    <col width="35.77734375" customWidth="1" style="3" min="9" max="9"/>
+    <col width="18.33203125" customWidth="1" style="3" min="10" max="10"/>
+    <col width="8.88671875" customWidth="1" style="3" min="11" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>firstName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>lastName</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>party</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>imgFile</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>xHandle</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>wikipediaPage</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>parliamentMemberNum</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>linkedInID</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>manthriLKID</t>
         </is>
@@ -1463,9 +1337,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1478,35 +1349,36 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="1" min="1" max="1"/>
-    <col width="56.109375" customWidth="1" min="2" max="2"/>
-    <col width="61.77734375" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" style="5" min="1" max="1"/>
+    <col width="56.109375" customWidth="1" style="3" min="2" max="2"/>
+    <col width="61.77734375" customWidth="1" style="3" min="3" max="3"/>
+    <col width="8.88671875" customWidth="1" style="3" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>criterion</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>refs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Assets</t>
         </is>
@@ -1516,14 +1388,14 @@
           <t>Has Declared Assets in Public in at least one of the last 5 years</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>https://www.tisrilanka.org/mpassets/</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
@@ -1533,14 +1405,14 @@
           <t>Has Over 70% Attendance in the Ninth Parliament</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>https://www.parliament.lk</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Communist</t>
         </is>
@@ -1552,7 +1424,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Corruption</t>
         </is>
@@ -1564,7 +1436,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Criminal</t>
         </is>
@@ -1576,7 +1448,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Economic</t>
         </is>
@@ -1588,7 +1460,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Education</t>
         </is>
@@ -1600,7 +1472,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>JVP1989</t>
         </is>
@@ -1610,14 +1482,14 @@
           <t>Has Participated in or Is Associated with 1987-1989 JVP insurrection</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Leader</t>
         </is>
@@ -1629,7 +1501,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Military</t>
         </is>
@@ -1641,7 +1513,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Minister</t>
         </is>
@@ -1653,7 +1525,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>ParaMilitary</t>
         </is>
@@ -1665,7 +1537,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Presidency</t>
         </is>
@@ -1677,7 +1549,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>RajapaksaCabinet</t>
         </is>
@@ -1689,7 +1561,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Seat</t>
         </is>
@@ -1699,14 +1571,14 @@
           <t>Has Won a Electoral District Seat in the 2020 General Election</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>SLPP</t>
         </is>
@@ -1716,14 +1588,14 @@
           <t>Is Member or Former-Member of the SLPP</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sri_Lanka_Podujana_Peramuna</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Under65</t>
         </is>
@@ -1735,7 +1607,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Voted20A</t>
         </is>
@@ -1745,7 +1617,7 @@
           <t>Has Voted in Favour of the 20th Amendment</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka</t>
         </is>
@@ -1774,9 +1646,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1786,40 +1655,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.44140625" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.33203125" customWidth="1" style="5" min="2" max="2"/>
-    <col width="7.88671875" customWidth="1" style="7" min="3" max="3"/>
-    <col width="121.44140625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="8.88671875" customWidth="1" style="5" min="7" max="16384"/>
+    <col width="13.44140625" customWidth="1" style="10" min="1" max="1"/>
+    <col width="13.33203125" customWidth="1" style="10" min="2" max="2"/>
+    <col width="7.88671875" customWidth="1" style="11" min="3" max="3"/>
+    <col width="121.44140625" customWidth="1" style="10" min="4" max="4"/>
+    <col width="8.88671875" customWidth="1" style="10" min="5" max="7"/>
+    <col width="8.88671875" customWidth="1" style="10" min="8" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>criterionID</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>candidateID</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>refs</t>
         </is>
@@ -2918,7 +2787,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2933,7 +2802,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2948,7 +2817,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2963,7 +2832,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2978,7 +2847,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2993,7 +2862,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3008,7 +2877,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3023,7 +2892,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3038,7 +2907,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3048,12 +2917,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3068,7 +2937,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3083,7 +2952,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3098,7 +2967,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3113,7 +2982,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3128,7 +2997,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3143,7 +3012,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3158,7 +3027,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3173,7 +3042,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3188,11 +3057,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3203,7 +3077,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3218,16 +3092,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="89">
@@ -3238,7 +3107,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3253,7 +3122,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3268,7 +3137,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3278,31 +3147,36 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3313,16 +3187,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3333,7 +3202,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3348,11 +3217,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3363,7 +3237,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3378,7 +3252,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3386,7 +3260,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3272,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3413,7 +3287,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3421,7 +3295,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>BSc in Physics from the University of Madras, Attorney at Law [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3307,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3441,7 +3315,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
@@ -3453,11 +3327,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="103">
@@ -3468,16 +3342,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>100</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3488,16 +3357,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>100</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3508,11 +3372,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3523,66 +3392,66 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>100</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>JVP1989</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>100</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="110">
@@ -3593,16 +3462,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>100</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="111">
@@ -3613,7 +3477,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -3628,7 +3492,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -3643,7 +3507,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -3658,7 +3522,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3673,7 +3537,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3688,7 +3552,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3703,7 +3567,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3718,7 +3582,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3733,7 +3597,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -3748,7 +3612,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -3763,7 +3627,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3773,27 +3637,32 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3803,12 +3672,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3818,12 +3687,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3838,16 +3707,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>100</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="127">
@@ -3858,7 +3722,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3873,7 +3737,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3888,7 +3752,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3903,7 +3767,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3918,11 +3782,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -3933,16 +3802,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>-100</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Former leader of ITAK [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
-        </is>
       </c>
     </row>
     <row r="133">
@@ -3953,7 +3817,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3968,7 +3832,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3983,11 +3847,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -3998,27 +3867,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>100</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4028,12 +3892,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4043,12 +3907,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4058,32 +3922,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>100</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4098,7 +3957,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4113,7 +3972,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4128,7 +3987,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4143,7 +4002,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4158,7 +4017,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4173,11 +4032,16 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -4188,7 +4052,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4203,7 +4067,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4218,7 +4082,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -4233,7 +4097,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4243,47 +4107,47 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>100</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -4293,12 +4157,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -4308,12 +4172,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -4323,12 +4187,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -4343,16 +4207,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>100</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="159">
@@ -4363,7 +4222,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -4378,7 +4237,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4393,11 +4252,16 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -4408,11 +4272,16 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -4423,7 +4292,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4438,11 +4307,16 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -4453,11 +4327,16 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -4468,77 +4347,77 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>100</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>100</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4548,61 +4427,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>100</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>100</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>100</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="174">
@@ -4613,16 +4477,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>100</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="175">
@@ -4633,7 +4492,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4648,7 +4507,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4663,7 +4522,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4678,7 +4537,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4693,7 +4552,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4708,7 +4567,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4723,7 +4582,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4733,121 +4592,126 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4858,16 +4722,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>100</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4878,11 +4737,16 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
+        </is>
       </c>
     </row>
     <row r="192">
@@ -4893,11 +4757,16 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -4908,7 +4777,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4923,7 +4792,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4938,11 +4807,16 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
+        </is>
       </c>
     </row>
     <row r="196">
@@ -4953,162 +4827,142 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>100</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>He has expressed support for abolishing the executive presidency, advocating for a parliamentary system that ensures greater checks and balances [https://www.colombotelegraph.com/index.php/electing-a-new-parliament-ending-the-old-presidency]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C200" t="n">
         <v>-100</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
-        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>100</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>100</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -5123,11 +4977,16 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="207">
@@ -5138,7 +4997,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -5153,7 +5012,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -5168,7 +5027,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -5183,7 +5042,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -5198,22 +5057,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -5223,12 +5087,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -5238,12 +5102,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -5253,12 +5117,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -5268,32 +5132,27 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>100</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5303,12 +5162,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5318,12 +5177,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -5333,12 +5192,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -5348,21 +5207,16 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>100</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="222">
@@ -5373,7 +5227,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5388,7 +5242,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5403,7 +5257,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5418,7 +5272,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -5433,37 +5287,47 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5473,12 +5337,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5488,12 +5352,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5503,12 +5367,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5518,12 +5382,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5533,12 +5397,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5548,12 +5412,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5563,12 +5427,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5578,12 +5442,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5593,21 +5457,16 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>100</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="238">
@@ -5618,16 +5477,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>100</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="239">
@@ -5638,7 +5492,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5653,11 +5507,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="241">
@@ -5668,206 +5527,221 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>100</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Jaffna District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C251" t="n">
         <v>-100</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>100</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5878,15 +5752,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
         </is>
       </c>
     </row>
@@ -5898,11 +5772,16 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="256">
@@ -5913,197 +5792,227 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/M._A._Sumanthiran]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C266" t="n">
         <v>0</v>
       </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -6111,47 +6020,47 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Voted20A</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6072,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -6183,293 +6092,13 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D271" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>AZ</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>0</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>JR</t>
-        </is>
-      </c>
-      <c r="C274" t="n">
-        <v>0</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>KP</t>
-        </is>
-      </c>
-      <c r="C275" t="n">
-        <v>0</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="C277" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v>0</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>PB</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>0</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>0</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>SJ</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>0</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>0</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>SP</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>100</v>
-      </c>
-      <c r="D285" t="inlineStr">
         <is>
           <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
@@ -6478,6 +6107,18 @@
   </sheetData>
   <conditionalFormatting sqref="A2:A12">
     <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A14 A16:A25">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6606,22 +6247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A14 A16:A25">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Candidates" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,14 +71,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -88,9 +83,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
@@ -500,22 +492,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8" customWidth="1" style="3" min="1" max="1"/>
-    <col width="17.33203125" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="11.6640625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="9.21875" customWidth="1" style="3" min="5" max="5"/>
-    <col width="16.21875" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="26.109375" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="8.88671875" customWidth="1" style="3" min="8" max="8"/>
-    <col width="35.77734375" customWidth="1" style="3" min="9" max="9"/>
-    <col width="18.33203125" customWidth="1" style="3" min="10" max="10"/>
-    <col width="8.88671875" customWidth="1" style="3" min="11" max="16384"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="17.33203125" customWidth="1" min="2" max="2"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.21875" customWidth="1" min="5" max="5"/>
+    <col width="16.21875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="26.109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="8.88671875" customWidth="1" min="8" max="8"/>
+    <col width="35.77734375" customWidth="1" min="9" max="9"/>
+    <col width="18.33203125" customWidth="1" min="10" max="10"/>
+    <col width="8.88671875" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,77 +565,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anura Kumara</t>
+          <t>PWSK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Disanayake</t>
+          <t>Bandaranayake</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NPP</t>
+          <t>JSP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>112.jpg</t>
+          <t>PB.png</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AnuraDisanayake</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anura_Kumara_Dissanayake</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>112</v>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>anuradissanayake</t>
+          <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>anura-kumara-dissanayaka</t>
+          <t>null</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASP</t>
+          <t>Nuwan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Liyanage</t>
+          <t>Bopage</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SLLP</t>
+          <t>PSA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ASPL.png</t>
+          <t>NB.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -653,7 +647,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A._S._P._Liyanage</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -725,69 +719,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Battaramulle</t>
+          <t>Anura Kumara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seelarathana</t>
+          <t>Disanayake</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>NPP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BS.png</t>
+          <t>112.jpg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>AnuraDisanayake</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>Anura_Kumara_Dissanayake</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>112</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>anuradissanayake</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>anura-kumara-dissanayaka</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Janaka</t>
+          <t>Sarath</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ratnayake</t>
+          <t>Fonseka</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -797,109 +789,109 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JR.jpg</t>
+          <t>3135.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>GeneralFonseka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Janaka_Ratnayake</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>Sarath_Fonseka</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3135</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>field-marshal-sarath-fonseka-465815179</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>sarath-fonseka</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>Oshala</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Piyadasa</t>
+          <t>Herath</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>NIF</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>297.jpg</t>
+          <t>OH.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>OshalaHerath</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>297</v>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>oshalaherath</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>null</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>k-k-piyadasa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nuwan</t>
+          <t>Siritunga</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Bopage</t>
+          <t>Jayasuriya</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NB.png</t>
+          <t>SJ.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -909,7 +901,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>Siritunga_Jayasuriya</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -931,32 +923,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Oshala</t>
+          <t>Sarath</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Herath</t>
+          <t>Keerthirathna</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NIF</t>
+          <t>Independent</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OH.png</t>
+          <t>SK.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OshalaHerath</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -964,14 +956,12 @@
           <t>null</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>3038</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>null</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>oshalaherath</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -983,27 +973,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PWSK</t>
+          <t>ASP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bandaranayake</t>
+          <t>Liyanage</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>JSP</t>
+          <t>SLLP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PB.png</t>
+          <t>ASPL.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1013,17 +1003,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>A._S._P._Liyanage</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>null</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1035,17 +1025,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ranil</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wickramasinghe</t>
+          <t>Piyadasa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1055,21 +1045,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1244.jpg</t>
+          <t>297.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RW_UNP</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ranil_Wickremesinghe</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1244</v>
+        <v>297</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1078,74 +1068,74 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ranil-wickremesinghe</t>
+          <t>k-k-piyadasa</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sarath</t>
+          <t>Sajith</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonseka</t>
+          <t>Premadasa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Independent</t>
+          <t>SJB</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3135.jpg</t>
+          <t>140.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GeneralFonseka</t>
+          <t>SajithPremadasa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarath_Fonseka</t>
+          <t>Sajith_Premadasa</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3135</v>
+        <v>140</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>field-marshal-sarath-fonseka-465815179</t>
+          <t>sajithpremadasa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>sarath-fonseka</t>
+          <t>sajith-premadasa</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Siritunga</t>
+          <t>Wijeyadasa</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Jayasuriya</t>
+          <t>Rajapakshe</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1155,49 +1145,47 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SJ.jpg</t>
+          <t>1521.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>WijeRajapakshe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Siritunga_Jayasuriya</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
+          <t>Wijeyadasa_Rajapakshe</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1521</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>wijeyadasa-rajapakshe</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>wijeyadasa-rajapakshe</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sarath</t>
+          <t>Janaka</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Keerthirathna</t>
+          <t>Ratnayake</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1207,7 +1195,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SK.jpg</t>
+          <t>JR.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1217,11 +1205,13 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>Janaka_Ratnayake</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3038</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1237,67 +1227,69 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sajith</t>
+          <t>Battaramulle</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Premadasa</t>
+          <t>Seelarathana</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SJB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>140.jpg</t>
+          <t>BS.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SajithPremadasa</t>
+          <t>null</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sajith_Premadasa</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>140</v>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sajithpremadasa</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>sajith-premadasa</t>
+          <t>null</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wijeyadasa</t>
+          <t>Ranil</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rajapakshe</t>
+          <t>Wickramasinghe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1307,30 +1299,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1521.jpg</t>
+          <t>1244.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WijeRajapakshe</t>
+          <t>RW_UNP</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wijeyadasa_Rajapakshe</t>
+          <t>Ranil_Wickremesinghe</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1521</v>
+        <v>1244</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>wijeyadasa-rajapakshe</t>
+          <t>null</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>wijeyadasa-rajapakshe</t>
+          <t>ranil-wickremesinghe</t>
         </is>
       </c>
     </row>
@@ -1348,16 +1340,16 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="17" customWidth="1" style="5" min="1" max="1"/>
-    <col width="56.109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="61.77734375" customWidth="1" style="3" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="3" min="4" max="16384"/>
+    <col width="17" customWidth="1" style="2" min="1" max="1"/>
+    <col width="56.109375" customWidth="1" min="2" max="2"/>
+    <col width="61.77734375" customWidth="1" min="3" max="3"/>
+    <col width="8.88671875" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1378,7 +1370,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Assets</t>
         </is>
@@ -1388,14 +1380,14 @@
           <t>Has Declared Assets in Public in at least one of the last 5 years</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>https://www.tisrilanka.org/mpassets/</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Attendance</t>
         </is>
@@ -1405,50 +1397,50 @@
           <t>Has Over 70% Attendance in the Ninth Parliament</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>https://www.parliament.lk</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Communist</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Is Associated with Communist Ideologies</t>
+          <t>Is not associated with any extreme political Ideologies</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Corruption</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Has History of Corruption Charges</t>
+          <t>Has No History of Corruption Charges</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Criminal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Has Ongoing Criminal Case(s)</t>
+          <t>Has No Ongoing Criminal Case(s)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Economic</t>
         </is>
@@ -1460,7 +1452,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Education</t>
         </is>
@@ -1472,24 +1464,24 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>JVP1989</t>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Has Participated in or Is Associated with 1987-1989 JVP insurrection</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
+          <t>Has Not Participated in and Is Not Associated with insurrections</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Leader</t>
         </is>
@@ -1501,19 +1493,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Military</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Has Military Affiliations</t>
+          <t>Has No Military Affiliations</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Minister</t>
         </is>
@@ -1525,19 +1517,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Has Para-Military Affiliations</t>
+          <t>Has No Para-Military Affiliations</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Presidency</t>
         </is>
@@ -1549,19 +1541,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Has been Appointed to Cabinet by a Rajapaksa President</t>
+          <t>Has never been Appointed to Cabinet by a Rajapaksa President</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Seat</t>
         </is>
@@ -1571,31 +1563,31 @@
           <t>Has Won a Electoral District Seat in the 2020 General Election</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>SLPP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Is Member or Former-Member of the SLPP</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
+          <t>Is not a Member nor a Former-Member of the SLPP</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Sri_Lanka_Podujana_Peramuna</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Under65</t>
         </is>
@@ -1607,17 +1599,17 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Voted20A</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Has Voted in Favour of the 20th Amendment</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
+          <t>Has Voted Against the 20th Amendment</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka</t>
         </is>
@@ -1657,38 +1649,38 @@
   </sheetPr>
   <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.44140625" customWidth="1" style="10" min="1" max="1"/>
-    <col width="13.33203125" customWidth="1" style="10" min="2" max="2"/>
-    <col width="7.88671875" customWidth="1" style="11" min="3" max="3"/>
-    <col width="121.44140625" customWidth="1" style="10" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="10" min="5" max="7"/>
-    <col width="8.88671875" customWidth="1" style="10" min="8" max="16384"/>
+    <col width="13.44140625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.33203125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="7.88671875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="121.44140625" customWidth="1" style="6" min="4" max="4"/>
+    <col width="8.88671875" customWidth="1" style="6" min="5" max="9"/>
+    <col width="8.88671875" customWidth="1" style="6" min="10" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>criterionID</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>candidateID</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>refs</t>
         </is>
@@ -1697,7 +1689,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1706,13 +1698,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1721,13 +1718,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1736,13 +1738,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1751,13 +1758,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1766,13 +1778,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1781,13 +1798,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1796,13 +1818,18 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1811,13 +1838,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1826,13 +1858,18 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1841,13 +1878,18 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1856,13 +1898,18 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1871,13 +1918,18 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1886,13 +1938,18 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1901,13 +1958,18 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1917,12 +1979,17 @@
       </c>
       <c r="C16" t="n">
         <v>-100</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1932,17 +1999,12 @@
       </c>
       <c r="C17" t="n">
         <v>-100</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
-        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1951,18 +2013,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1971,18 +2028,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1991,18 +2043,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2011,18 +2058,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2031,18 +2073,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2051,18 +2088,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2071,18 +2103,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2091,18 +2118,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2111,18 +2133,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2132,17 +2149,12 @@
       </c>
       <c r="C27" t="n">
         <v>-100</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
-        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2151,18 +2163,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2171,18 +2178,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2191,18 +2193,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2212,17 +2209,12 @@
       </c>
       <c r="C31" t="n">
         <v>-100</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
-        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2231,18 +2223,18 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Anura Kumara Dissanayake, the leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
+          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2251,13 +2243,18 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2266,13 +2263,18 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2281,13 +2283,18 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2296,13 +2303,18 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2311,13 +2323,18 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2326,13 +2343,18 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2341,13 +2363,18 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2356,13 +2383,18 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2371,13 +2403,18 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2387,12 +2424,17 @@
       </c>
       <c r="C42" t="n">
         <v>-100</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2401,13 +2443,18 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2416,13 +2463,18 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-100</v>
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2431,13 +2483,18 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Communist</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2447,6 +2504,11 @@
       </c>
       <c r="C46" t="n">
         <v>-100</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2461,7 +2523,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -2476,7 +2538,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -2491,7 +2553,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -2506,7 +2568,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -2521,7 +2583,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -2536,7 +2598,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -2551,7 +2613,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -2566,7 +2628,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -2581,7 +2643,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -2596,7 +2658,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2616,7 +2678,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -2631,7 +2693,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -2646,7 +2708,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -2661,7 +2723,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2681,7 +2743,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2701,7 +2763,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -2716,7 +2778,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -2731,7 +2793,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -2746,7 +2808,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -2761,7 +2823,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -2776,7 +2838,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
@@ -2791,7 +2853,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -2806,7 +2868,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -2821,7 +2883,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -2836,7 +2898,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -2851,7 +2913,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -2866,7 +2928,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -2881,7 +2943,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75">
@@ -2896,7 +2958,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -2911,7 +2973,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77">
@@ -3407,7 +3469,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3416,7 +3478,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3427,7 +3489,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3436,13 +3498,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3451,13 +3513,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3466,13 +3528,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3481,13 +3543,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3496,13 +3558,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3511,13 +3573,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3526,13 +3588,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3541,13 +3603,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3556,13 +3618,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3571,13 +3633,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3586,13 +3648,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3601,13 +3663,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3616,13 +3678,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>JVP1989</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3631,7 +3693,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
@@ -3871,7 +3933,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
@@ -3886,7 +3948,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138">
@@ -3901,7 +3963,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -3916,7 +3978,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140">
@@ -3931,7 +3993,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
@@ -3946,7 +4008,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142">
@@ -3961,7 +4023,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
@@ -3976,7 +4038,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144">
@@ -3991,7 +4053,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
@@ -4006,7 +4068,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146">
@@ -4021,7 +4083,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
@@ -4036,7 +4098,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4056,7 +4118,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149">
@@ -4071,7 +4133,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150">
@@ -4086,7 +4148,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
@@ -4101,7 +4163,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
@@ -4362,7 +4424,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4371,18 +4433,18 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
+          <t>Anura Kumara Dissanayake, the leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4391,13 +4453,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4406,13 +4468,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4421,13 +4483,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4436,13 +4498,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4451,13 +4513,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4466,13 +4528,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4481,13 +4543,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4496,13 +4558,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4511,13 +4573,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4526,13 +4588,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4541,13 +4603,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4556,13 +4618,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4571,13 +4633,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4586,13 +4648,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4601,18 +4663,18 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
+          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4621,13 +4683,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4636,13 +4698,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4651,13 +4713,13 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4666,13 +4728,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4681,13 +4743,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4696,13 +4758,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4711,13 +4773,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4726,13 +4788,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4741,18 +4803,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
-        </is>
+        <v>100</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4762,17 +4819,12 @@
       </c>
       <c r="C192" t="n">
         <v>100</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
-        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4781,13 +4833,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4796,13 +4848,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4812,17 +4864,12 @@
       </c>
       <c r="C195" t="n">
         <v>100</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
-        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4831,13 +4878,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4846,13 +4893,18 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4861,13 +4913,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4876,13 +4928,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4891,13 +4943,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4906,13 +4958,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4921,13 +4973,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4936,13 +4988,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4951,13 +5003,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4966,13 +5018,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4981,18 +5033,18 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5001,13 +5053,18 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5016,13 +5073,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5031,13 +5088,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5046,13 +5103,18 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5062,17 +5124,12 @@
       </c>
       <c r="C211" t="n">
         <v>100</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5081,13 +5138,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5096,13 +5153,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5111,13 +5168,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5126,13 +5183,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5141,13 +5198,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5156,13 +5213,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5171,13 +5228,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5186,13 +5243,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5201,13 +5258,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5217,12 +5274,17 @@
       </c>
       <c r="C221" t="n">
         <v>-100</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5231,13 +5293,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5246,13 +5308,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5261,13 +5323,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5276,13 +5338,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5291,18 +5353,18 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5312,17 +5374,12 @@
       </c>
       <c r="C227" t="n">
         <v>100</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5331,13 +5388,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5346,13 +5403,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5361,13 +5418,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5376,13 +5433,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5391,13 +5448,13 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5406,13 +5463,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5421,13 +5478,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5436,13 +5493,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5451,13 +5508,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5466,13 +5523,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5481,13 +5538,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5496,13 +5553,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5512,17 +5569,12 @@
       </c>
       <c r="C240" t="n">
         <v>100</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5531,18 +5583,18 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5555,14 +5607,14 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5571,13 +5623,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5586,13 +5638,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5601,13 +5653,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5616,18 +5668,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>100</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5636,13 +5683,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5651,18 +5698,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>100</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5671,13 +5713,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5686,13 +5728,13 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5702,17 +5744,12 @@
       </c>
       <c r="C251" t="n">
         <v>-100</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5722,17 +5759,12 @@
       </c>
       <c r="C252" t="n">
         <v>-100</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-        </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5741,13 +5773,13 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5757,17 +5789,12 @@
       </c>
       <c r="C254" t="n">
         <v>-100</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
-        </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5780,14 +5807,14 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5796,18 +5823,18 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5816,18 +5843,18 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5838,16 +5865,11 @@
       <c r="C258" t="n">
         <v>0</v>
       </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5858,16 +5880,11 @@
       <c r="C259" t="n">
         <v>0</v>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5878,16 +5895,11 @@
       <c r="C260" t="n">
         <v>0</v>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5896,18 +5908,18 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5918,16 +5930,11 @@
       <c r="C262" t="n">
         <v>0</v>
       </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5936,18 +5943,18 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5958,16 +5965,11 @@
       <c r="C264" t="n">
         <v>0</v>
       </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5978,16 +5980,11 @@
       <c r="C265" t="n">
         <v>0</v>
       </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5996,18 +5993,18 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6020,14 +6017,14 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6038,16 +6035,11 @@
       <c r="C268" t="n">
         <v>0</v>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6056,18 +6048,18 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6076,18 +6068,18 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Voted20A</t>
+          <t>Under65</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6096,17 +6088,17 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A12">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6118,7 +6110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14 A16:A25">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6130,7 +6122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6141,8 +6133,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:A27 A29:A41">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="A26:A27 A29:A46">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6154,6 +6146,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A52">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:A54 A56:A57">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6165,8 +6193,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43 A45:A52">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="A1 A58:A106 A122:A256 A272:A1048576">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6177,8 +6215,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="A107:A121">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6189,42 +6227,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A54 A56:A57">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1 A58:A1048576">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="A257:A271">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6236,7 +6240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6260,7 +6264,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:A11"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -490,11 +490,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -505,13 +505,14 @@
     <col width="15.5546875" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="15.5546875" customWidth="1" min="7" max="7"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="9.21875" customWidth="1" min="9" max="9"/>
-    <col width="16.21875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="26.109375" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="8.88671875" customWidth="1" min="12" max="12"/>
-    <col width="35.77734375" customWidth="1" min="13" max="13"/>
-    <col width="18.33203125" customWidth="1" min="14" max="14"/>
-    <col width="8.88671875" customWidth="1" min="15" max="15"/>
+    <col width="11.6640625" customWidth="1" min="9" max="9"/>
+    <col width="9.21875" customWidth="1" min="10" max="10"/>
+    <col width="16.21875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="26.109375" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="8.88671875" customWidth="1" min="13" max="13"/>
+    <col width="35.77734375" customWidth="1" min="14" max="14"/>
+    <col width="18.33203125" customWidth="1" min="15" max="15"/>
+    <col width="8.88671875" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -557,30 +558,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>imgFile</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>xHandle</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>wikipediaPage</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>parliamentMemberNum</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>linkedInID</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>manthriLKID</t>
         </is>
@@ -625,28 +631,33 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>JVP</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>112.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>AnuraDisanayake</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Anura_Kumara_Dissanayake</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>112</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>anuradissanayake</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>anura-kumara-dissanayaka</t>
         </is>
@@ -689,30 +700,30 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>3135.jpg</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>GeneralFonseka</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Sarath_Fonseka</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>3135</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>field-marshal-sarath-fonseka-465815179</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>sarath-fonseka</t>
         </is>
@@ -755,32 +766,32 @@
           <t>SLLP</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ASPL.png</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>A._S._P._Liyanage</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -823,30 +834,30 @@
           <t>RJP</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>284.jpg</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>284</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>ajantha-zoysa-42a2b2101</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -889,32 +900,32 @@
           <t>JP</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>BS.png</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -961,32 +972,32 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>JR.jpg</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Janaka_Ratnayake</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1029,30 +1040,30 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>297.jpg</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>297</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>k-k-piyadasa</t>
         </is>
@@ -1101,30 +1112,35 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>FSP</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>NB.png</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1167,32 +1183,32 @@
           <t>JSP</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>PB.png</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>dr-p-w-s-k-bandaranayake-323a2221a</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1235,32 +1251,32 @@
           <t>USP</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>SJ.jpg</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Siritunga_Jayasuriya</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1303,30 +1319,30 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>SK.jpg</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>3038</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1369,32 +1385,32 @@
           <t>NIF</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>OH.png</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>OshalaHerath</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>oshalaherath</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1439,28 +1455,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>SLPP (breakaway), UNP, MEP, EPDP, SLFP (Siripala)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1244.jpg</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>RW_UNP</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Ranil_Wickremesinghe</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1244</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>ranil-wickremesinghe</t>
         </is>
@@ -1505,28 +1526,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>SLFP (Dayasiri), SLMC, UCPF, TPA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>140.jpg</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>SajithPremadasa</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Sajith_Premadasa</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>140</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>sajithpremadasa</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>sajith-premadasa</t>
         </is>
@@ -1571,28 +1597,33 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>SLFP (Sirisena)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>1521.jpg</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>WijeRajapakshe</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Wijeyadasa_Rajapakshe</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>1521</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>wijeyadasa-rajapakshe</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>wijeyadasa-rajapakshe</t>
         </is>
@@ -1635,30 +1666,30 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>1523.jpg</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Akmeemana_Dayarathana_Thero</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>1523</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1701,32 +1732,32 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1769,32 +1800,32 @@
           <t>AJP</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1837,30 +1868,30 @@
           <t>Independent</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>1422.jpg</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1422</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>null</t>
         </is>
@@ -1903,34 +1934,176 @@
           <t>NSU</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>SM.png</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>sarath-manamendra-6b9b183a</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dilith</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dilith</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Jayaweera</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>MJP</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DJ.jpg</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Dilith_J</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Dilith_Jayaweera</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>dilith-jayaweera</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Namal</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Namal</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Rajapakse</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SLPP</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SLPP (Rajapakse)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>3179.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RajapaksaNamal</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Namal_Rajapaksa</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>3179</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>namalrajapaksa</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
@@ -2268,8 +2441,8 @@
     <col width="13.33203125" customWidth="1" style="6" min="2" max="2"/>
     <col width="7.88671875" customWidth="1" style="7" min="3" max="3"/>
     <col width="121.44140625" customWidth="1" style="6" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="6" min="5" max="12"/>
-    <col width="8.88671875" customWidth="1" style="6" min="13" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="6" min="5" max="13"/>
+    <col width="8.88671875" customWidth="1" style="6" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2412,17 +2585,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2432,11 +2601,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2447,16 +2621,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -2467,7 +2636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2487,7 +2656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2507,17 +2676,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2527,7 +2692,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2535,7 +2700,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
@@ -2547,11 +2712,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2562,15 +2732,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Not MP at the time. The amendment was passed on 22 October 2020, while Wickremesinghe was sworn in as the national list member of parliament of the UNP on 23 June 2021. [https://en.wikipedia.org/wiki/Twentieth_Amendment_to_the_Constitution_of_Sri_Lanka, https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
@@ -2582,16 +2752,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Not MP at the time</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -2602,15 +2767,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Not MP at the time</t>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
         </is>
       </c>
     </row>
@@ -2622,11 +2787,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not MP at the time</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2637,15 +2807,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+          <t>Not MP at the time</t>
         </is>
       </c>
     </row>
@@ -2657,46 +2827,51 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Voted Against [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Assets</t>
+          <t>Against20A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2707,11 +2882,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2722,11 +2897,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2737,7 +2912,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2752,7 +2927,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2767,7 +2942,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2782,11 +2957,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="30">
@@ -2797,12 +2972,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2812,7 +2988,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2827,11 +3003,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2842,7 +3018,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2857,7 +3033,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2872,12 +3048,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2887,7 +3064,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2902,7 +3079,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2917,7 +3094,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2932,7 +3109,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2947,7 +3124,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2962,7 +3139,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2972,27 +3149,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3002,41 +3179,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>-100</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Attendance</t>
+          <t>Assets</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="46">
@@ -3047,16 +3214,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
       </c>
     </row>
     <row r="47">
@@ -3067,16 +3229,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
       </c>
     </row>
     <row r="48">
@@ -3087,15 +3244,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Not Currently MP</t>
+          <t>221/383 [https://www.parliament.lk/component/members/viewMember/112]</t>
         </is>
       </c>
     </row>
@@ -3107,11 +3264,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3122,7 +3284,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3142,7 +3304,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3162,17 +3324,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3182,7 +3340,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3202,16 +3360,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>100</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3222,11 +3375,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3237,15 +3395,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
+          <t>Not Currently MP</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3415,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Not Currently MP</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3277,7 +3431,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3297,11 +3451,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3312,7 +3471,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3320,7 +3479,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
+          <t>76/98 [https://www.parliament.lk/en/members-of-parliament/directory-of-members/viewMember/1244]</t>
         </is>
       </c>
     </row>
@@ -3332,106 +3491,126 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>203/383 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3135]</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Not Currently MP</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>100</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>339/383 [https://www.parliament.lk/en/component/members/viewMember/140]</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Corruption</t>
+          <t>Attendance</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>100</v>
+        <v>-100</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>198/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3442,11 +3621,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3457,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3472,7 +3651,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3487,7 +3666,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3502,7 +3681,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3517,7 +3696,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3532,17 +3711,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3552,11 +3727,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76">
@@ -3567,11 +3742,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3582,7 +3757,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3597,7 +3772,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3612,12 +3787,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3627,16 +3803,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Leader of the opposition, has faced allegations and scrutiny, although not all allegations have led to formal charges. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -3647,42 +3818,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Has faced various allegations and criticisms regarding corruption and mismanagement during his political career. [E.g. https://www.theguardian.com/world/2022/jul/18/ranil-wickremesinghe-wily-fox-who-became-sri-lanka-pm-six-times-profile/]</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3692,12 +3863,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3707,12 +3878,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3722,12 +3893,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3737,46 +3908,56 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
+        <v>-100</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Leader of the opposition, has faced allegations and scrutiny, although not all allegations have led to formal charges. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Criminal</t>
+          <t>Corruption</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3787,11 +3968,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3802,11 +3983,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3817,7 +3998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3832,7 +4013,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3847,7 +4028,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3862,11 +4043,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -3877,12 +4058,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3892,7 +4074,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3907,11 +4089,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3922,11 +4104,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -3937,7 +4119,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3952,127 +4134,128 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4082,31 +4265,31 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -4117,11 +4300,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4132,11 +4315,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4147,16 +4330,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>100</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="115">
@@ -4167,11 +4345,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="116">
@@ -4182,7 +4360,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4197,7 +4375,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4212,12 +4390,13 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4227,11 +4406,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="120">
@@ -4242,11 +4421,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4257,7 +4436,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4267,92 +4446,93 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>100</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Served as Minister of Finance on numerous occasions [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4362,106 +4542,91 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>100</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>100</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
-        </is>
+        <v>-100</v>
       </c>
     </row>
     <row r="134">
@@ -4472,16 +4637,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>100</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4492,7 +4652,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4507,11 +4667,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-100</v>
+        <v>100</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Holds a BSc in Physical Sciences from the University of Kelaniya [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -4522,7 +4687,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4537,7 +4702,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4552,7 +4717,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -4567,17 +4732,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>100</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4587,7 +4748,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4595,19 +4756,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+          <t>Holds a Degree in Management from Sri Jayawardenapura University, and a Masters in Business from Colombo University [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4617,12 +4778,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4632,92 +4793,103 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+          <t>Attorney at Law [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C147" t="n">
         <v>100</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Has a PhD in Physics from CTH Sweden [https://sci.pdn.ac.lk/physics/staff/PWSK-Bandaranayake]</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C148" t="n">
         <v>100</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -4727,91 +4899,101 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C154" t="n">
         <v>100</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Holds a degree from the London School of Economics. [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Insurrections</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -4822,11 +5004,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -4837,11 +5019,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -4852,11 +5034,16 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>100</v>
+        <v>-100</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Having been involved in the JVP from his school days, Dissanayake joined the JVP in 1987, becoming active in student politics, engaged in full time political activities from 1987, with the onset of the 1987–1989 JVP insurrection. [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -4867,11 +5054,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
@@ -4882,7 +5069,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -4897,7 +5084,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4907,217 +5094,209 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C162" t="n">
         <v>0</v>
       </c>
+      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>100</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>100</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
-        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -5127,31 +5306,31 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Leader</t>
+          <t>Insurrections</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178">
@@ -5162,11 +5341,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5177,7 +5356,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5192,7 +5371,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5200,7 +5379,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
+          <t>Leader of the JVP [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna#Leader]</t>
         </is>
       </c>
     </row>
@@ -5212,286 +5391,293 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
+      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C192" t="n">
         <v>100</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Leader of the UNP [https://en.wikipedia.org/wiki/United_National_Party]</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C196" t="n">
         <v>-100</v>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C198" t="n">
         <v>100</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Leader of the SJB [https://en.wikipedia.org/wiki/Samagi_Jana_Balawegaya]</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Military</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200">
@@ -5502,11 +5688,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -5517,172 +5703,169 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C204" t="n">
         <v>100</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5691,13 +5874,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5706,13 +5889,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5722,17 +5905,12 @@
       </c>
       <c r="C214" t="n">
         <v>100</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5747,7 +5925,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5756,18 +5934,18 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+          <t>He was the eighteenth Commander of the Sri Lankan Army, and under his command the Sri Lankan Army ended the 26-year Sri Lankan Civil War in 2009. [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5776,13 +5954,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5792,17 +5970,12 @@
       </c>
       <c r="C218" t="n">
         <v>100</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
-        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5817,7 +5990,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5827,17 +6000,12 @@
       </c>
       <c r="C220" t="n">
         <v>100</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Minister</t>
+          <t>Military</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5847,17 +6015,12 @@
       </c>
       <c r="C221" t="n">
         <v>100</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5872,7 +6035,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5887,7 +6050,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5896,18 +6059,18 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Anura Kumara Dissanayake, the Leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
+          <t>Minister of Agriculture, Livestock, Lands, and Irrigation (2004-2005) [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5916,13 +6079,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5931,13 +6094,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5946,308 +6109,335 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C236" t="n">
         <v>100</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions, including Prime Minister and various other cabinet roles [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C238" t="n">
         <v>100</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Minister of Wildlife and Sustainable Development, Minister of Regional Development [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C240" t="n">
         <v>100</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Deputy Minister of Agriculture (2000-2001) [https://en.wikipedia.org/wiki/11th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Minister of Housing, Construction and Cultural Affairs, Deputy Minister of Health [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Minister</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>100</v>
+        <v>-100</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Anura Kumara Dissanayake, the Leader of the Janatha Vimukthi Peramuna (JVP) and the National People's Power (NPP) in Sri Lanka, has a background associated with leftist ideologies, including Marxism-Leninism. [https://en.wikipedia.org/wiki/Janatha_Vimukthi_Peramuna]</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -6257,12 +6447,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -6272,42 +6462,43 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -6317,27 +6508,27 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -6347,12 +6538,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -6362,27 +6553,28 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
+      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -6392,12 +6584,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -6407,12 +6599,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -6422,12 +6614,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -6437,12 +6629,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -6452,12 +6644,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ParaMilitary</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -6467,27 +6659,27 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -6497,47 +6689,42 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C264" t="n">
         <v>100</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
-        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -6547,12 +6734,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -6562,267 +6749,259 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>He was involved in the 1987-1989 JVP insurrection, which had a paramilitary aspect [https://en.wikipedia.org/wiki/1987%E2%80%931989_JVP_insurrection]</t>
+        </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
+      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C276" t="n">
         <v>100</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
-        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
+      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C280" t="n">
         <v>100</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
-        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Presidency</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -6832,27 +7011,27 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -6862,12 +7041,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>ParaMilitary</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -6877,27 +7056,27 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -6907,92 +7086,93 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C290" t="n">
         <v>100</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>He strongly advocates for the abolishment of the executive presidency, considering it essential for the country's political and economic revival. He has promised to introduce a new constitution that includes this change if his party comes to power [https://asianmirror.lk/news/item/34833-abolishment-of-executive-presidency-needed-for-economic-revival-in-sl-akd]</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -7002,122 +7182,123 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C299" t="n">
         <v>0</v>
       </c>
+      <c r="D299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>RajapaksaCabinet</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ranil Wickramasinghe has shown fluctuating positions on this issue. While he has supported the idea of abolishing the executive presidency in the past, his actions as president have been seen as consolidating power within the executive branch </t>
+        </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -7127,132 +7308,142 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C304" t="n">
         <v>100</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Sarath Fonseka has been critical of the executive presidency and has indicated support for its abolition, preferring a system with more distributed power [https://www.newindianexpress.com/world/2009/Nov/30/fonseka-vows-to-end-executive-presidency-108543.html]</t>
+        </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C308" t="n">
         <v>100</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Sajith Premadasa has advocated for the abolishment of the executive presidency, emphasizing the need for constitutional reforms to ensure a more balanced distribution of power [https://www.dailymirror.lk/breaking-news/Executive-Presidency-should-be-changed-even-if-Sajith-wins-Eran/108-287450]</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>Presidency</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -7262,12 +7453,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -7277,12 +7468,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -7292,42 +7483,43 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -7337,42 +7529,42 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -7382,142 +7574,138 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SLPP</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+          <t>He was appointed as Prime Minister and Minister of Finance, Economic Stability and National Policies by Gotabaya Rajapaksa in May 2022. [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -7527,282 +7715,274 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>RajapaksaCabinet</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C331" t="n">
         <v>-100</v>
       </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>-100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>KK</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>100</v>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C341" t="n">
         <v>100</v>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
-        </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C343" t="n">
         <v>0</v>
       </c>
+      <c r="D343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>AKD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="C344" t="n">
         <v>100</v>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
-        </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -7812,132 +7992,122 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>JR</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="C348" t="n">
         <v>100</v>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
-        </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>KK</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>100</v>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>SLPP</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>He was elected to parliament in 2020 as a member of the SLPP, but has since moved to the SLFP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -7947,108 +8117,687 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>AKD</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C358" t="n">
         <v>-100</v>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>100</v>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Under65</t>
+          <t>Seat</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>JR</t>
         </is>
       </c>
       <c r="C361" t="n">
         <v>-100</v>
       </c>
-      <c r="D361" t="inlineStr">
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>KK</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>KP</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SJ</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>100</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Seat</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>100</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Colombo District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>AKD</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>100</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Born 1968 [https://en.wikipedia.org/wiki/Anura_Kumara_Dissanayake]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>JR</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>100</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Born 1964 [https://en.wikipedia.org/wiki/Janaka_Ratnayake]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>KK</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>KP</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>100</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>No data on birth date. Assuming under 65 based on appearance [https://www.dailymirror.lk/breaking-news/Nuwan-Bopage-named-Presidential-candidate-of-Aragalaya-activists/108-288277]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Born 1946 [https://en.wikipedia.org/wiki/Ranil_Wickremesinghe]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Born 1950 [https://en.wikipedia.org/wiki/Sarath_Fonseka]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>SJ</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Born 1951 [https://www.parliament.lk/members-of-parliament/directory-of-members/viewMember/3038]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>100</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Born 1967 [https://en.wikipedia.org/wiki/Sajith_Premadasa]</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Under65</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>WR</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D397" t="inlineStr">
         <is>
           <t>Born 1959 [https://en.wikipedia.org/wiki/Wijeyadasa_Rajapakshe]</t>
         </is>

--- a/data/Candidates.xlsx
+++ b/data/Candidates.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="809" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" tabRatio="809" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Candidates" sheetId="1" state="visible" r:id="rId1"/>
@@ -492,9 +492,9 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Is a Party Leader</t>
+          <t>Is Leader of a Party with at least One Seat in Parliament</t>
         </is>
       </c>
     </row>
@@ -2430,9 +2430,9 @@
   </sheetPr>
   <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G335" sqref="G335"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -2440,9 +2440,9 @@
     <col width="13.44140625" customWidth="1" style="6" min="1" max="1"/>
     <col width="13.33203125" customWidth="1" style="6" min="2" max="2"/>
     <col width="7.88671875" customWidth="1" style="7" min="3" max="3"/>
-    <col width="121.44140625" customWidth="1" style="6" min="4" max="4"/>
-    <col width="8.88671875" customWidth="1" style="6" min="5" max="13"/>
-    <col width="8.88671875" customWidth="1" style="6" min="14" max="16384"/>
+    <col width="65.88671875" customWidth="1" style="6" min="4" max="4"/>
+    <col width="8.88671875" customWidth="1" style="6" min="5" max="14"/>
+    <col width="8.88671875" customWidth="1" style="6" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2481,6 +2481,11 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not an MP [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2591,7 +2596,11 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not an MP [https://en.wikipedia.org/wiki/Dilith_Jayaweera]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2680,9 +2689,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Voted in Favour [https://www.newswire.lk/2020/10/22/2nd-reading-of-20th-amendmet-passe/]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2886,7 +2899,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="25">
@@ -2976,9 +2989,8 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3052,9 +3064,8 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3220,6 +3231,11 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Not an MP [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3330,7 +3346,11 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Not an MP [https://en.wikipedia.org/wiki/Dilith_Jayaweera]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3419,9 +3439,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>205/383 [https://www.parliament.lk/component/members/viewMember/1521]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3625,7 +3649,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -3717,7 +3741,6 @@
       <c r="C74" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3791,9 +3814,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Has faced allegations and controversies, though not necessarily formal corruption charges.  [https://en.wikipedia.org/wiki/Namal_Rajapaksa]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3972,7 +3999,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -4062,9 +4089,8 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4138,9 +4164,8 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4304,7 +4329,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="113">
@@ -4394,9 +4419,8 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4470,9 +4494,8 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4641,7 +4664,12 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Bachelor of Arts, University of Peradeniya [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -4736,9 +4764,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Attorney-at-Law [https://en.wikipedia.org/wiki/Dilith_Jayaweera]</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4822,9 +4854,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
-      </c>
-      <c r="D145" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Attorney at Law [https://en.wikipedia.org/wiki/Namal_Rajapaksa]</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5008,7 +5044,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157">
@@ -5103,9 +5139,8 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5179,9 +5214,8 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5345,7 +5379,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="179">
@@ -5440,9 +5474,8 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5516,9 +5549,8 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5677,7 +5709,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="200">
@@ -5692,7 +5724,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201">
@@ -5782,9 +5814,8 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5858,9 +5889,8 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6029,7 +6059,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="223">
@@ -6124,9 +6154,8 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
-      </c>
-      <c r="D228" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6200,9 +6229,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
-      </c>
-      <c r="D233" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Multiple ministerial positions [https://en.wikipedia.org/wiki/Namal_Rajapaksa]</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6391,7 +6424,12 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Member of the JHU and the Sinhala Rawaya [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -6488,7 +6526,6 @@
       <c r="C250" t="n">
         <v>0</v>
       </c>
-      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6562,9 +6599,8 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
-      </c>
-      <c r="D255" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6728,7 +6764,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267">
@@ -6823,9 +6859,8 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
-      </c>
-      <c r="D272" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6899,9 +6934,8 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
-      </c>
-      <c r="D277" t="inlineStr"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7162,7 +7196,6 @@
       <c r="C294" t="n">
         <v>0</v>
       </c>
-      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7236,9 +7269,8 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
-      </c>
-      <c r="D299" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7417,7 +7449,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311">
@@ -7507,9 +7539,8 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
-      </c>
-      <c r="D316" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7583,9 +7614,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
-      </c>
-      <c r="D321" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>He has held multiple ministerial positions under both presidents Mahinda and Gotabaya Rajapaksa [https://en.wikipedia.org/wiki/Namal_Rajapaksa]</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7759,7 +7794,12 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Affiliated [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
       </c>
     </row>
     <row r="333">
@@ -7849,9 +7889,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
-      </c>
-      <c r="D338" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Important supporter of Gotabaya Rajapakse's 2019 Election Campaign [https://en.wikipedia.org/wiki/Dilith_Jayaweera]</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7925,9 +7969,13 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
-      </c>
-      <c r="D343" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>He was elected to parliament in 2020 as a member of the SLPP [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8096,7 +8144,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="355">
@@ -8191,9 +8239,8 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
-      </c>
-      <c r="D360" t="inlineStr"/>
+        <v>-100</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8267,9 +8314,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
-      </c>
-      <c r="D365" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Hambantota District [https://en.wikipedia.org/wiki/16th_Parliament_of_Sri_Lanka]</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8443,7 +8494,12 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Born in 1970 [https://en.wikipedia.org/wiki/Akmeemana_Dayarathana_Thero]</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -8538,9 +8594,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
-      </c>
-      <c r="D382" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Born in 1967 [https://en.wikipedia.org/wiki/Dilith_Jayaweera]</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8624,9 +8684,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
-      </c>
-      <c r="D387" t="inlineStr"/>
+        <v>-100</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Born 1986 [https://en.wikipedia.org/wiki/Namal_Rajapaksa]</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
